--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3860,12 +4063,15 @@
         <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4010,12 +4222,15 @@
         <v>4</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4275,15 @@
         <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4110,12 +4328,15 @@
         <v>4</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,366 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45679.42708333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="C78" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="D78" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="E78" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="F78" t="n">
+        <v>250</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10</v>
+      </c>
+      <c r="K78" t="n">
+        <v>15</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45679.55208333334</v>
+      </c>
+      <c r="B79" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="C79" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="D79" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="E79" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>22</v>
+      </c>
+      <c r="J79" t="n">
+        <v>13</v>
+      </c>
+      <c r="K79" t="n">
+        <v>15</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45679.59375</v>
+      </c>
+      <c r="B80" t="n">
+        <v>360</v>
+      </c>
+      <c r="C80" t="n">
+        <v>360</v>
+      </c>
+      <c r="D80" t="n">
+        <v>360</v>
+      </c>
+      <c r="E80" t="n">
+        <v>360</v>
+      </c>
+      <c r="F80" t="n">
+        <v>500</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>22</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45679.63541666666</v>
+      </c>
+      <c r="B81" t="n">
+        <v>363</v>
+      </c>
+      <c r="C81" t="n">
+        <v>363</v>
+      </c>
+      <c r="D81" t="n">
+        <v>363</v>
+      </c>
+      <c r="E81" t="n">
+        <v>363</v>
+      </c>
+      <c r="F81" t="n">
+        <v>250</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>22</v>
+      </c>
+      <c r="J81" t="n">
+        <v>15</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B82" t="n">
+        <v>345.2000122070312</v>
+      </c>
+      <c r="C82" t="n">
+        <v>346.2000122070312</v>
+      </c>
+      <c r="D82" t="n">
+        <v>345.2000122070312</v>
+      </c>
+      <c r="E82" t="n">
+        <v>346.2000122070312</v>
+      </c>
+      <c r="F82" t="n">
+        <v>750</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B83" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="C83" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="D83" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="E83" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="F83" t="n">
+        <v>250</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>23</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B84" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="C84" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="E84" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>23</v>
+      </c>
+      <c r="J84" t="n">
+        <v>13</v>
+      </c>
+      <c r="K84" t="n">
+        <v>15</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4601,7 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4652,7 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4703,7 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4754,7 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4805,7 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4856,7 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4907,7 +4919,315 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B85" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="C85" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="D85" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="E85" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>15</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B86" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="C86" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="D86" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="E86" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>24</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+      <c r="K86" t="n">
+        <v>15</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B87" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="C87" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="D87" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="E87" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="F87" t="n">
+        <v>250</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11</v>
+      </c>
+      <c r="K87" t="n">
+        <v>15</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B88" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="C88" t="n">
+        <v>366.8500061035156</v>
+      </c>
+      <c r="D88" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="E88" t="n">
+        <v>366.8500061035156</v>
+      </c>
+      <c r="F88" t="n">
+        <v>750</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
+      <c r="J88" t="n">
+        <v>12</v>
+      </c>
+      <c r="K88" t="n">
+        <v>15</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B89" t="n">
+        <v>365</v>
+      </c>
+      <c r="C89" t="n">
+        <v>365</v>
+      </c>
+      <c r="D89" t="n">
+        <v>360</v>
+      </c>
+      <c r="E89" t="n">
+        <v>360</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>13</v>
+      </c>
+      <c r="K89" t="n">
+        <v>15</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B90" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="C90" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="D90" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="E90" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="F90" t="n">
+        <v>500</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>24</v>
+      </c>
+      <c r="J90" t="n">
+        <v>14</v>
+      </c>
+      <c r="K90" t="n">
+        <v>15</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4972,7 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5023,7 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5074,7 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5125,7 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5176,7 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5227,7 +5237,621 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B91" t="n">
+        <v>357</v>
+      </c>
+      <c r="C91" t="n">
+        <v>357</v>
+      </c>
+      <c r="D91" t="n">
+        <v>357</v>
+      </c>
+      <c r="E91" t="n">
+        <v>357</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>15</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B92" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="C92" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="D92" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="E92" t="n">
+        <v>341.6499938964844</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10</v>
+      </c>
+      <c r="K92" t="n">
+        <v>15</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B93" t="n">
+        <v>343</v>
+      </c>
+      <c r="C93" t="n">
+        <v>343</v>
+      </c>
+      <c r="D93" t="n">
+        <v>343</v>
+      </c>
+      <c r="E93" t="n">
+        <v>343</v>
+      </c>
+      <c r="F93" t="n">
+        <v>250</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11</v>
+      </c>
+      <c r="K93" t="n">
+        <v>15</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B94" t="n">
+        <v>343</v>
+      </c>
+      <c r="C94" t="n">
+        <v>343</v>
+      </c>
+      <c r="D94" t="n">
+        <v>343</v>
+      </c>
+      <c r="E94" t="n">
+        <v>343</v>
+      </c>
+      <c r="F94" t="n">
+        <v>250</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>27</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12</v>
+      </c>
+      <c r="K94" t="n">
+        <v>15</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B95" t="n">
+        <v>342</v>
+      </c>
+      <c r="C95" t="n">
+        <v>342</v>
+      </c>
+      <c r="D95" t="n">
+        <v>342</v>
+      </c>
+      <c r="E95" t="n">
+        <v>342</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>27</v>
+      </c>
+      <c r="J95" t="n">
+        <v>13</v>
+      </c>
+      <c r="K95" t="n">
+        <v>15</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B96" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="C96" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="D96" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="E96" t="n">
+        <v>352.8500061035156</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>27</v>
+      </c>
+      <c r="J96" t="n">
+        <v>14</v>
+      </c>
+      <c r="K96" t="n">
+        <v>15</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B97" t="n">
+        <v>355</v>
+      </c>
+      <c r="C97" t="n">
+        <v>355</v>
+      </c>
+      <c r="D97" t="n">
+        <v>355</v>
+      </c>
+      <c r="E97" t="n">
+        <v>355</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>15</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B98" t="n">
+        <v>336</v>
+      </c>
+      <c r="C98" t="n">
+        <v>336</v>
+      </c>
+      <c r="D98" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E98" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B99" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="C99" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E99" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>28</v>
+      </c>
+      <c r="J99" t="n">
+        <v>11</v>
+      </c>
+      <c r="K99" t="n">
+        <v>15</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B100" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="C100" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E100" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12</v>
+      </c>
+      <c r="K100" t="n">
+        <v>15</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B101" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="C101" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E101" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>13</v>
+      </c>
+      <c r="K101" t="n">
+        <v>15</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B102" t="n">
+        <v>340</v>
+      </c>
+      <c r="C102" t="n">
+        <v>340</v>
+      </c>
+      <c r="D102" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E102" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>28</v>
+      </c>
+      <c r="J102" t="n">
+        <v>14</v>
+      </c>
+      <c r="K102" t="n">
+        <v>15</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5290,7 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5341,7 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5392,7 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5443,7 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5494,7 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5545,7 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5596,7 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5647,7 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5698,7 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5749,7 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5800,7 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5851,7 +5873,672 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>328.5499877929688</v>
+      </c>
+      <c r="C103" t="n">
+        <v>335</v>
+      </c>
+      <c r="D103" t="n">
+        <v>328.5499877929688</v>
+      </c>
+      <c r="E103" t="n">
+        <v>335</v>
+      </c>
+      <c r="F103" t="n">
+        <v>250</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>29</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="n">
+        <v>15</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B104" t="n">
+        <v>330</v>
+      </c>
+      <c r="C104" t="n">
+        <v>330</v>
+      </c>
+      <c r="D104" t="n">
+        <v>330</v>
+      </c>
+      <c r="E104" t="n">
+        <v>330</v>
+      </c>
+      <c r="F104" t="n">
+        <v>250</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>29</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11</v>
+      </c>
+      <c r="K104" t="n">
+        <v>15</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>330.0499877929688</v>
+      </c>
+      <c r="C105" t="n">
+        <v>332</v>
+      </c>
+      <c r="D105" t="n">
+        <v>330</v>
+      </c>
+      <c r="E105" t="n">
+        <v>332</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>29</v>
+      </c>
+      <c r="J105" t="n">
+        <v>12</v>
+      </c>
+      <c r="K105" t="n">
+        <v>15</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>330</v>
+      </c>
+      <c r="C106" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="D106" t="n">
+        <v>327.0499877929688</v>
+      </c>
+      <c r="E106" t="n">
+        <v>327.0499877929688</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>29</v>
+      </c>
+      <c r="J106" t="n">
+        <v>13</v>
+      </c>
+      <c r="K106" t="n">
+        <v>15</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B107" t="n">
+        <v>327.0499877929688</v>
+      </c>
+      <c r="C107" t="n">
+        <v>327.0499877929688</v>
+      </c>
+      <c r="D107" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="E107" t="n">
+        <v>318.75</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>29</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="C108" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="D108" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>29</v>
+      </c>
+      <c r="J108" t="n">
+        <v>15</v>
+      </c>
+      <c r="K108" t="n">
+        <v>15</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="C109" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="D109" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="E109" t="n">
+        <v>318.6000061035156</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>30</v>
+      </c>
+      <c r="J109" t="n">
+        <v>9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>15</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="C110" t="n">
+        <v>325</v>
+      </c>
+      <c r="D110" t="n">
+        <v>303.2999877929688</v>
+      </c>
+      <c r="E110" t="n">
+        <v>312.3999938964844</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>30</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10</v>
+      </c>
+      <c r="K110" t="n">
+        <v>15</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B111" t="n">
+        <v>312.3999938964844</v>
+      </c>
+      <c r="C111" t="n">
+        <v>312.3999938964844</v>
+      </c>
+      <c r="D111" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="E111" t="n">
+        <v>310</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>30</v>
+      </c>
+      <c r="J111" t="n">
+        <v>11</v>
+      </c>
+      <c r="K111" t="n">
+        <v>15</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>310</v>
+      </c>
+      <c r="C112" t="n">
+        <v>310</v>
+      </c>
+      <c r="D112" t="n">
+        <v>304.6000061035156</v>
+      </c>
+      <c r="E112" t="n">
+        <v>306.25</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>30</v>
+      </c>
+      <c r="J112" t="n">
+        <v>12</v>
+      </c>
+      <c r="K112" t="n">
+        <v>15</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>305.5499877929688</v>
+      </c>
+      <c r="C113" t="n">
+        <v>310</v>
+      </c>
+      <c r="D113" t="n">
+        <v>305.5499877929688</v>
+      </c>
+      <c r="E113" t="n">
+        <v>307.0499877929688</v>
+      </c>
+      <c r="F113" t="n">
+        <v>750</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>30</v>
+      </c>
+      <c r="J113" t="n">
+        <v>13</v>
+      </c>
+      <c r="K113" t="n">
+        <v>15</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B114" t="n">
+        <v>306</v>
+      </c>
+      <c r="C114" t="n">
+        <v>307</v>
+      </c>
+      <c r="D114" t="n">
+        <v>306</v>
+      </c>
+      <c r="E114" t="n">
+        <v>307</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>30</v>
+      </c>
+      <c r="J114" t="n">
+        <v>14</v>
+      </c>
+      <c r="K114" t="n">
+        <v>15</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>320</v>
+      </c>
+      <c r="C115" t="n">
+        <v>320</v>
+      </c>
+      <c r="D115" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>250</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>30</v>
+      </c>
+      <c r="J115" t="n">
+        <v>15</v>
+      </c>
+      <c r="K115" t="n">
+        <v>15</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5926,7 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5977,7 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6028,7 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6079,7 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6130,7 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6181,7 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6232,7 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6283,7 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6334,7 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6385,7 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6436,7 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6487,7 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6538,7 +6562,672 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B116" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>31</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9</v>
+      </c>
+      <c r="K116" t="n">
+        <v>15</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B117" t="n">
+        <v>303.6000061035156</v>
+      </c>
+      <c r="C117" t="n">
+        <v>306.0499877929688</v>
+      </c>
+      <c r="D117" t="n">
+        <v>303.6000061035156</v>
+      </c>
+      <c r="E117" t="n">
+        <v>306</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>31</v>
+      </c>
+      <c r="J117" t="n">
+        <v>10</v>
+      </c>
+      <c r="K117" t="n">
+        <v>15</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B118" t="n">
+        <v>308</v>
+      </c>
+      <c r="C118" t="n">
+        <v>310</v>
+      </c>
+      <c r="D118" t="n">
+        <v>308</v>
+      </c>
+      <c r="E118" t="n">
+        <v>310</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>31</v>
+      </c>
+      <c r="J118" t="n">
+        <v>11</v>
+      </c>
+      <c r="K118" t="n">
+        <v>15</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>309.8500061035156</v>
+      </c>
+      <c r="D119" t="n">
+        <v>303</v>
+      </c>
+      <c r="E119" t="n">
+        <v>309.8500061035156</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>31</v>
+      </c>
+      <c r="J119" t="n">
+        <v>12</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B120" t="n">
+        <v>305</v>
+      </c>
+      <c r="C120" t="n">
+        <v>309.8500061035156</v>
+      </c>
+      <c r="D120" t="n">
+        <v>305</v>
+      </c>
+      <c r="E120" t="n">
+        <v>309.8500061035156</v>
+      </c>
+      <c r="F120" t="n">
+        <v>750</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>31</v>
+      </c>
+      <c r="J120" t="n">
+        <v>13</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B121" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="C121" t="n">
+        <v>316.7999877929688</v>
+      </c>
+      <c r="D121" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="E121" t="n">
+        <v>316.7999877929688</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>31</v>
+      </c>
+      <c r="J121" t="n">
+        <v>14</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>307.2000122070312</v>
+      </c>
+      <c r="C122" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="D122" t="n">
+        <v>307.2000122070312</v>
+      </c>
+      <c r="E122" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>6</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B123" t="n">
+        <v>308</v>
+      </c>
+      <c r="C123" t="n">
+        <v>310</v>
+      </c>
+      <c r="D123" t="n">
+        <v>308</v>
+      </c>
+      <c r="E123" t="n">
+        <v>310</v>
+      </c>
+      <c r="F123" t="n">
+        <v>750</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>10</v>
+      </c>
+      <c r="K123" t="n">
+        <v>15</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>6</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B124" t="n">
+        <v>312</v>
+      </c>
+      <c r="C124" t="n">
+        <v>312</v>
+      </c>
+      <c r="D124" t="n">
+        <v>309</v>
+      </c>
+      <c r="E124" t="n">
+        <v>309</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>11</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>6</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>309</v>
+      </c>
+      <c r="C125" t="n">
+        <v>309</v>
+      </c>
+      <c r="D125" t="n">
+        <v>306</v>
+      </c>
+      <c r="E125" t="n">
+        <v>306</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12</v>
+      </c>
+      <c r="K125" t="n">
+        <v>15</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>6</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>305</v>
+      </c>
+      <c r="C126" t="n">
+        <v>308</v>
+      </c>
+      <c r="D126" t="n">
+        <v>301</v>
+      </c>
+      <c r="E126" t="n">
+        <v>308</v>
+      </c>
+      <c r="F126" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>13</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>6</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B127" t="n">
+        <v>308</v>
+      </c>
+      <c r="C127" t="n">
+        <v>310</v>
+      </c>
+      <c r="D127" t="n">
+        <v>303</v>
+      </c>
+      <c r="E127" t="n">
+        <v>303</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>14</v>
+      </c>
+      <c r="K127" t="n">
+        <v>15</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>6</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>310</v>
+      </c>
+      <c r="C128" t="n">
+        <v>314</v>
+      </c>
+      <c r="D128" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="E128" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>15</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>6</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6615,7 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6666,7 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6717,7 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6768,7 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6819,7 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6870,23 +6880,25 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45691.38541666666</v>
+        <v>45689.59375</v>
       </c>
       <c r="B122" t="n">
-        <v>307.2000122070312</v>
+        <v>315</v>
       </c>
       <c r="C122" t="n">
-        <v>314.9500122070312</v>
+        <v>315</v>
       </c>
       <c r="D122" t="n">
-        <v>307.2000122070312</v>
+        <v>315</v>
       </c>
       <c r="E122" t="n">
-        <v>314.9500122070312</v>
+        <v>315</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -6898,10 +6910,10 @@
         <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K122" t="n">
         <v>15</v>
@@ -6910,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -6925,22 +6937,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45691.42708333334</v>
+        <v>45691.38541666666</v>
       </c>
       <c r="B123" t="n">
-        <v>308</v>
+        <v>307.2000122070312</v>
       </c>
       <c r="C123" t="n">
-        <v>310</v>
+        <v>314.9500122070312</v>
       </c>
       <c r="D123" t="n">
-        <v>308</v>
+        <v>307.2000122070312</v>
       </c>
       <c r="E123" t="n">
-        <v>310</v>
+        <v>314.9500122070312</v>
       </c>
       <c r="F123" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>2025</v>
@@ -6952,7 +6964,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K123" t="n">
         <v>15</v>
@@ -6972,26 +6984,28 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45691.46875</v>
+        <v>45691.42708333334</v>
       </c>
       <c r="B124" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C124" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D124" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E124" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F124" t="n">
-        <v>3500</v>
+        <v>750</v>
       </c>
       <c r="G124" t="n">
         <v>2025</v>
@@ -7003,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K124" t="n">
         <v>15</v>
@@ -7023,26 +7037,28 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45691.51041666666</v>
+        <v>45691.46875</v>
       </c>
       <c r="B125" t="n">
+        <v>312</v>
+      </c>
+      <c r="C125" t="n">
+        <v>312</v>
+      </c>
+      <c r="D125" t="n">
         <v>309</v>
       </c>
-      <c r="C125" t="n">
+      <c r="E125" t="n">
         <v>309</v>
       </c>
-      <c r="D125" t="n">
-        <v>306</v>
-      </c>
-      <c r="E125" t="n">
-        <v>306</v>
-      </c>
       <c r="F125" t="n">
-        <v>1250</v>
+        <v>3500</v>
       </c>
       <c r="G125" t="n">
         <v>2025</v>
@@ -7054,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K125" t="n">
         <v>15</v>
@@ -7074,26 +7090,28 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45691.55208333334</v>
+        <v>45691.51041666666</v>
       </c>
       <c r="B126" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C126" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D126" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E126" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F126" t="n">
-        <v>30000</v>
+        <v>1250</v>
       </c>
       <c r="G126" t="n">
         <v>2025</v>
@@ -7105,7 +7123,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K126" t="n">
         <v>15</v>
@@ -7125,26 +7143,28 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45691.59375</v>
+        <v>45691.55208333334</v>
       </c>
       <c r="B127" t="n">
+        <v>305</v>
+      </c>
+      <c r="C127" t="n">
         <v>308</v>
       </c>
-      <c r="C127" t="n">
-        <v>310</v>
-      </c>
       <c r="D127" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E127" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F127" t="n">
-        <v>1500</v>
+        <v>30000</v>
       </c>
       <c r="G127" t="n">
         <v>2025</v>
@@ -7156,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K127" t="n">
         <v>15</v>
@@ -7168,7 +7188,7 @@
         <v>6</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -7176,26 +7196,28 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45691.63541666666</v>
+        <v>45691.59375</v>
       </c>
       <c r="B128" t="n">
+        <v>308</v>
+      </c>
+      <c r="C128" t="n">
         <v>310</v>
       </c>
-      <c r="C128" t="n">
-        <v>314</v>
-      </c>
       <c r="D128" t="n">
-        <v>307.9500122070312</v>
+        <v>303</v>
       </c>
       <c r="E128" t="n">
-        <v>310.0499877929688</v>
+        <v>303</v>
       </c>
       <c r="F128" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G128" t="n">
         <v>2025</v>
@@ -7207,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K128" t="n">
         <v>15</v>
@@ -7227,7 +7249,725 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>310</v>
+      </c>
+      <c r="C129" t="n">
+        <v>314</v>
+      </c>
+      <c r="D129" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="E129" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>15</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>6</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>310</v>
+      </c>
+      <c r="C130" t="n">
+        <v>310</v>
+      </c>
+      <c r="D130" t="n">
+        <v>310</v>
+      </c>
+      <c r="E130" t="n">
+        <v>310</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>6</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>310</v>
+      </c>
+      <c r="C131" t="n">
+        <v>310</v>
+      </c>
+      <c r="D131" t="n">
+        <v>305</v>
+      </c>
+      <c r="E131" t="n">
+        <v>310</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>10</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>6</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B132" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="C132" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="D132" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="E132" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="F132" t="n">
+        <v>250</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>6</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>311</v>
+      </c>
+      <c r="C133" t="n">
+        <v>311</v>
+      </c>
+      <c r="D133" t="n">
+        <v>311</v>
+      </c>
+      <c r="E133" t="n">
+        <v>311</v>
+      </c>
+      <c r="F133" t="n">
+        <v>500</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>6</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>311</v>
+      </c>
+      <c r="E134" t="n">
+        <v>311</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>13</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>6</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B135" t="n">
+        <v>302</v>
+      </c>
+      <c r="C135" t="n">
+        <v>310</v>
+      </c>
+      <c r="D135" t="n">
+        <v>302</v>
+      </c>
+      <c r="E135" t="n">
+        <v>310</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>14</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>6</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="C136" t="n">
+        <v>310</v>
+      </c>
+      <c r="D136" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="E136" t="n">
+        <v>310</v>
+      </c>
+      <c r="F136" t="n">
+        <v>250</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>6</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="C137" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="D137" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="E137" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5</v>
+      </c>
+      <c r="J137" t="n">
+        <v>10</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>6</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B138" t="n">
+        <v>310.9500122070312</v>
+      </c>
+      <c r="C138" t="n">
+        <v>311</v>
+      </c>
+      <c r="D138" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="E138" t="n">
+        <v>310</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J138" t="n">
+        <v>11</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>6</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="C139" t="n">
+        <v>317</v>
+      </c>
+      <c r="D139" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="E139" t="n">
+        <v>317</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>6</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>315</v>
+      </c>
+      <c r="C140" t="n">
+        <v>315</v>
+      </c>
+      <c r="D140" t="n">
+        <v>311</v>
+      </c>
+      <c r="E140" t="n">
+        <v>311</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>13</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>6</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B141" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>312.2999877929688</v>
+      </c>
+      <c r="D141" t="n">
+        <v>310</v>
+      </c>
+      <c r="E141" t="n">
+        <v>312.2999877929688</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>14</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>6</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>315</v>
+      </c>
+      <c r="C142" t="n">
+        <v>315</v>
+      </c>
+      <c r="D142" t="n">
+        <v>312.2999877929688</v>
+      </c>
+      <c r="E142" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>6</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q142"/>
+  <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -6933,7 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7355,7 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7406,7 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7457,7 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7508,7 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7559,7 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7610,7 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7661,7 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7712,7 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7763,7 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7806,7 +7826,7 @@
         <v>6</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -7814,7 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7865,7 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7916,7 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="inlineStr"/>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7967,7 +7993,927 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>312</v>
+      </c>
+      <c r="C143" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="D143" t="n">
+        <v>312</v>
+      </c>
+      <c r="E143" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J143" t="n">
+        <v>9</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>6</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B144" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="D144" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6</v>
+      </c>
+      <c r="J144" t="n">
+        <v>11</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>6</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="C145" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="D145" t="n">
+        <v>311</v>
+      </c>
+      <c r="E145" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>6</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="C146" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="D146" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="E146" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="F146" t="n">
+        <v>250</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>6</v>
+      </c>
+      <c r="J146" t="n">
+        <v>13</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>6</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="C147" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="D147" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="E147" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="F147" t="n">
+        <v>500</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="n">
+        <v>6</v>
+      </c>
+      <c r="J147" t="n">
+        <v>14</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>6</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>313</v>
+      </c>
+      <c r="C148" t="n">
+        <v>313</v>
+      </c>
+      <c r="D148" t="n">
+        <v>313</v>
+      </c>
+      <c r="E148" t="n">
+        <v>313</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J148" t="n">
+        <v>9</v>
+      </c>
+      <c r="K148" t="n">
+        <v>15</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>6</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>311.9500122070312</v>
+      </c>
+      <c r="C149" t="n">
+        <v>312</v>
+      </c>
+      <c r="D149" t="n">
+        <v>311.9500122070312</v>
+      </c>
+      <c r="E149" t="n">
+        <v>312</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>10</v>
+      </c>
+      <c r="K149" t="n">
+        <v>15</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>6</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B150" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>310</v>
+      </c>
+      <c r="E150" t="n">
+        <v>310.8999938964844</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J150" t="n">
+        <v>11</v>
+      </c>
+      <c r="K150" t="n">
+        <v>15</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>6</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>310</v>
+      </c>
+      <c r="D151" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J151" t="n">
+        <v>12</v>
+      </c>
+      <c r="K151" t="n">
+        <v>15</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>6</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>307</v>
+      </c>
+      <c r="C152" t="n">
+        <v>307</v>
+      </c>
+      <c r="D152" t="n">
+        <v>300</v>
+      </c>
+      <c r="E152" t="n">
+        <v>300</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J152" t="n">
+        <v>13</v>
+      </c>
+      <c r="K152" t="n">
+        <v>15</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>6</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B153" t="n">
+        <v>300</v>
+      </c>
+      <c r="C153" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>300</v>
+      </c>
+      <c r="E153" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J153" t="n">
+        <v>14</v>
+      </c>
+      <c r="K153" t="n">
+        <v>15</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="C154" t="n">
+        <v>308</v>
+      </c>
+      <c r="D154" t="n">
+        <v>300</v>
+      </c>
+      <c r="E154" t="n">
+        <v>308</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="n">
+        <v>10</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>15</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>7</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>303</v>
+      </c>
+      <c r="C155" t="n">
+        <v>306.8999938964844</v>
+      </c>
+      <c r="D155" t="n">
+        <v>303</v>
+      </c>
+      <c r="E155" t="n">
+        <v>306.8999938964844</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10</v>
+      </c>
+      <c r="J155" t="n">
+        <v>10</v>
+      </c>
+      <c r="K155" t="n">
+        <v>15</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>7</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B156" t="n">
+        <v>306</v>
+      </c>
+      <c r="C156" t="n">
+        <v>306</v>
+      </c>
+      <c r="D156" t="n">
+        <v>306</v>
+      </c>
+      <c r="E156" t="n">
+        <v>306</v>
+      </c>
+      <c r="F156" t="n">
+        <v>500</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10</v>
+      </c>
+      <c r="J156" t="n">
+        <v>11</v>
+      </c>
+      <c r="K156" t="n">
+        <v>15</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>7</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>306</v>
+      </c>
+      <c r="C157" t="n">
+        <v>306</v>
+      </c>
+      <c r="D157" t="n">
+        <v>306</v>
+      </c>
+      <c r="E157" t="n">
+        <v>306</v>
+      </c>
+      <c r="F157" t="n">
+        <v>500</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12</v>
+      </c>
+      <c r="K157" t="n">
+        <v>15</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>7</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="C158" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="D158" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="E158" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="F158" t="n">
+        <v>250</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J158" t="n">
+        <v>13</v>
+      </c>
+      <c r="K158" t="n">
+        <v>15</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>7</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B159" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="C159" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="D159" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="E159" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="F159" t="n">
+        <v>250</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K159" t="n">
+        <v>15</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>7</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>304</v>
+      </c>
+      <c r="C160" t="n">
+        <v>304</v>
+      </c>
+      <c r="D160" t="n">
+        <v>303.5499877929688</v>
+      </c>
+      <c r="E160" t="n">
+        <v>303.5499877929688</v>
+      </c>
+      <c r="F160" t="n">
+        <v>250</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J160" t="n">
+        <v>15</v>
+      </c>
+      <c r="K160" t="n">
+        <v>15</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>7</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q160"/>
+  <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -8046,7 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8097,7 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8148,7 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8199,7 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8250,7 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8301,7 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
-      <c r="Q148" t="inlineStr"/>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8352,7 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8403,7 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8454,7 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8497,7 +8515,7 @@
         <v>6</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O152" t="n">
         <v>0</v>
@@ -8505,7 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8548,7 +8568,7 @@
         <v>6</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O153" t="n">
         <v>0</v>
@@ -8556,7 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8599,7 +8621,7 @@
         <v>7</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O154" t="n">
         <v>0</v>
@@ -8607,7 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8658,7 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8709,7 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8760,7 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8811,7 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8862,7 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8913,7 +8947,570 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B161" t="n">
+        <v>301</v>
+      </c>
+      <c r="C161" t="n">
+        <v>301</v>
+      </c>
+      <c r="D161" t="n">
+        <v>301</v>
+      </c>
+      <c r="E161" t="n">
+        <v>301</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>11</v>
+      </c>
+      <c r="J161" t="n">
+        <v>10</v>
+      </c>
+      <c r="K161" t="n">
+        <v>15</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>7</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B162" t="n">
+        <v>302</v>
+      </c>
+      <c r="C162" t="n">
+        <v>302</v>
+      </c>
+      <c r="D162" t="n">
+        <v>300</v>
+      </c>
+      <c r="E162" t="n">
+        <v>300</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J162" t="n">
+        <v>11</v>
+      </c>
+      <c r="K162" t="n">
+        <v>15</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>7</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>304</v>
+      </c>
+      <c r="C163" t="n">
+        <v>305</v>
+      </c>
+      <c r="D163" t="n">
+        <v>304</v>
+      </c>
+      <c r="E163" t="n">
+        <v>305</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>7</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>306</v>
+      </c>
+      <c r="C164" t="n">
+        <v>310</v>
+      </c>
+      <c r="D164" t="n">
+        <v>305</v>
+      </c>
+      <c r="E164" t="n">
+        <v>305</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J164" t="n">
+        <v>13</v>
+      </c>
+      <c r="K164" t="n">
+        <v>15</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>7</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>305</v>
+      </c>
+      <c r="C165" t="n">
+        <v>305</v>
+      </c>
+      <c r="D165" t="n">
+        <v>305</v>
+      </c>
+      <c r="E165" t="n">
+        <v>305</v>
+      </c>
+      <c r="F165" t="n">
+        <v>250</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J165" t="n">
+        <v>15</v>
+      </c>
+      <c r="K165" t="n">
+        <v>15</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>7</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>289.7999877929688</v>
+      </c>
+      <c r="C166" t="n">
+        <v>293</v>
+      </c>
+      <c r="D166" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="E166" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J166" t="n">
+        <v>9</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>7</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="C167" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="D167" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="E167" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="F167" t="n">
+        <v>250</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J167" t="n">
+        <v>10</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>7</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B168" t="n">
+        <v>290</v>
+      </c>
+      <c r="C168" t="n">
+        <v>300</v>
+      </c>
+      <c r="D168" t="n">
+        <v>290</v>
+      </c>
+      <c r="E168" t="n">
+        <v>300</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J168" t="n">
+        <v>11</v>
+      </c>
+      <c r="K168" t="n">
+        <v>15</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>7</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>295</v>
+      </c>
+      <c r="C169" t="n">
+        <v>295</v>
+      </c>
+      <c r="D169" t="n">
+        <v>295</v>
+      </c>
+      <c r="E169" t="n">
+        <v>295</v>
+      </c>
+      <c r="F169" t="n">
+        <v>250</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J169" t="n">
+        <v>12</v>
+      </c>
+      <c r="K169" t="n">
+        <v>15</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>7</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B170" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="C170" t="n">
+        <v>290</v>
+      </c>
+      <c r="D170" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="E170" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J170" t="n">
+        <v>13</v>
+      </c>
+      <c r="K170" t="n">
+        <v>15</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>7</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="C171" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="D171" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="E171" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="F171" t="n">
+        <v>250</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>12</v>
+      </c>
+      <c r="J171" t="n">
+        <v>15</v>
+      </c>
+      <c r="K171" t="n">
+        <v>15</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>7</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q171"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9000,7 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9051,7 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9102,7 +9106,9 @@
       <c r="P163" t="n">
         <v>1</v>
       </c>
-      <c r="Q163" t="inlineStr"/>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9145,7 +9151,7 @@
         <v>7</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O164" t="n">
         <v>1</v>
@@ -9153,7 +9159,9 @@
       <c r="P164" t="n">
         <v>1</v>
       </c>
-      <c r="Q164" t="inlineStr"/>
+      <c r="Q164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9204,7 +9212,9 @@
       <c r="P165" t="n">
         <v>1</v>
       </c>
-      <c r="Q165" t="inlineStr"/>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9247,7 +9257,7 @@
         <v>7</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -9255,7 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9306,7 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
-      <c r="Q167" t="inlineStr"/>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9357,7 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
-      <c r="Q168" t="inlineStr"/>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9408,7 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
-      <c r="Q169" t="inlineStr"/>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9459,7 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
-      <c r="Q170" t="inlineStr"/>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9510,7 +9530,672 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
-      <c r="Q171" t="inlineStr"/>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>300</v>
+      </c>
+      <c r="C172" t="n">
+        <v>300</v>
+      </c>
+      <c r="D172" t="n">
+        <v>300</v>
+      </c>
+      <c r="E172" t="n">
+        <v>300</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>13</v>
+      </c>
+      <c r="J172" t="n">
+        <v>9</v>
+      </c>
+      <c r="K172" t="n">
+        <v>15</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>7</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="C173" t="n">
+        <v>292</v>
+      </c>
+      <c r="D173" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>292</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>13</v>
+      </c>
+      <c r="J173" t="n">
+        <v>10</v>
+      </c>
+      <c r="K173" t="n">
+        <v>15</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>7</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B174" t="n">
+        <v>299</v>
+      </c>
+      <c r="C174" t="n">
+        <v>299</v>
+      </c>
+      <c r="D174" t="n">
+        <v>299</v>
+      </c>
+      <c r="E174" t="n">
+        <v>299</v>
+      </c>
+      <c r="F174" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13</v>
+      </c>
+      <c r="J174" t="n">
+        <v>11</v>
+      </c>
+      <c r="K174" t="n">
+        <v>15</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>7</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>292</v>
+      </c>
+      <c r="D175" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>292</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>13</v>
+      </c>
+      <c r="J175" t="n">
+        <v>12</v>
+      </c>
+      <c r="K175" t="n">
+        <v>15</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>7</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B176" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="C176" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="D176" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="E176" t="n">
+        <v>291.5499877929688</v>
+      </c>
+      <c r="F176" t="n">
+        <v>500</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
+        <v>13</v>
+      </c>
+      <c r="J176" t="n">
+        <v>13</v>
+      </c>
+      <c r="K176" t="n">
+        <v>15</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>7</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>290</v>
+      </c>
+      <c r="C177" t="n">
+        <v>290</v>
+      </c>
+      <c r="D177" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="E177" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="F177" t="n">
+        <v>750</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>13</v>
+      </c>
+      <c r="J177" t="n">
+        <v>14</v>
+      </c>
+      <c r="K177" t="n">
+        <v>15</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>7</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1</v>
+      </c>
+      <c r="P177" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>290</v>
+      </c>
+      <c r="C178" t="n">
+        <v>290</v>
+      </c>
+      <c r="D178" t="n">
+        <v>290</v>
+      </c>
+      <c r="E178" t="n">
+        <v>290</v>
+      </c>
+      <c r="F178" t="n">
+        <v>500</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>13</v>
+      </c>
+      <c r="J178" t="n">
+        <v>15</v>
+      </c>
+      <c r="K178" t="n">
+        <v>15</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>7</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45702.38541666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>276</v>
+      </c>
+      <c r="D179" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>276</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" t="n">
+        <v>14</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9</v>
+      </c>
+      <c r="K179" t="n">
+        <v>15</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>7</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45702.46875</v>
+      </c>
+      <c r="B180" t="n">
+        <v>281</v>
+      </c>
+      <c r="C180" t="n">
+        <v>281</v>
+      </c>
+      <c r="D180" t="n">
+        <v>276</v>
+      </c>
+      <c r="E180" t="n">
+        <v>276</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>14</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11</v>
+      </c>
+      <c r="K180" t="n">
+        <v>15</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>7</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45702.51041666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>276</v>
+      </c>
+      <c r="C181" t="n">
+        <v>280</v>
+      </c>
+      <c r="D181" t="n">
+        <v>276</v>
+      </c>
+      <c r="E181" t="n">
+        <v>276</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>14</v>
+      </c>
+      <c r="J181" t="n">
+        <v>12</v>
+      </c>
+      <c r="K181" t="n">
+        <v>15</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>7</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B182" t="n">
+        <v>276</v>
+      </c>
+      <c r="C182" t="n">
+        <v>280</v>
+      </c>
+      <c r="D182" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>280</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>14</v>
+      </c>
+      <c r="J182" t="n">
+        <v>13</v>
+      </c>
+      <c r="K182" t="n">
+        <v>15</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>7</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B183" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="n">
+        <v>14</v>
+      </c>
+      <c r="J183" t="n">
+        <v>14</v>
+      </c>
+      <c r="K183" t="n">
+        <v>15</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>7</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45702.63541666666</v>
+      </c>
+      <c r="B184" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>14</v>
+      </c>
+      <c r="J184" t="n">
+        <v>15</v>
+      </c>
+      <c r="K184" t="n">
+        <v>15</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>7</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q390"/>
+  <dimension ref="A1:Q413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19467,6 +19467,1041 @@
       <c r="P390" t="inlineStr"/>
       <c r="Q390" t="inlineStr"/>
     </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45709.15625</v>
+      </c>
+      <c r="B391" t="n">
+        <v>262</v>
+      </c>
+      <c r="C391" t="n">
+        <v>262</v>
+      </c>
+      <c r="D391" t="n">
+        <v>251</v>
+      </c>
+      <c r="E391" t="n">
+        <v>251</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H391" t="n">
+        <v>2</v>
+      </c>
+      <c r="I391" t="n">
+        <v>21</v>
+      </c>
+      <c r="J391" t="n">
+        <v>3</v>
+      </c>
+      <c r="K391" t="n">
+        <v>45</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>8</v>
+      </c>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45709.19791666666</v>
+      </c>
+      <c r="B392" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="C392" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="D392" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="E392" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G392" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H392" t="n">
+        <v>2</v>
+      </c>
+      <c r="I392" t="n">
+        <v>21</v>
+      </c>
+      <c r="J392" t="n">
+        <v>4</v>
+      </c>
+      <c r="K392" t="n">
+        <v>45</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>8</v>
+      </c>
+      <c r="N392" t="inlineStr"/>
+      <c r="O392" t="inlineStr"/>
+      <c r="P392" t="inlineStr"/>
+      <c r="Q392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45709.23958333334</v>
+      </c>
+      <c r="B393" t="n">
+        <v>262</v>
+      </c>
+      <c r="C393" t="n">
+        <v>262</v>
+      </c>
+      <c r="D393" t="n">
+        <v>262</v>
+      </c>
+      <c r="E393" t="n">
+        <v>262</v>
+      </c>
+      <c r="F393" t="n">
+        <v>500</v>
+      </c>
+      <c r="G393" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H393" t="n">
+        <v>2</v>
+      </c>
+      <c r="I393" t="n">
+        <v>21</v>
+      </c>
+      <c r="J393" t="n">
+        <v>5</v>
+      </c>
+      <c r="K393" t="n">
+        <v>45</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>8</v>
+      </c>
+      <c r="N393" t="inlineStr"/>
+      <c r="O393" t="inlineStr"/>
+      <c r="P393" t="inlineStr"/>
+      <c r="Q393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45709.28125</v>
+      </c>
+      <c r="B394" t="n">
+        <v>257</v>
+      </c>
+      <c r="C394" t="n">
+        <v>257</v>
+      </c>
+      <c r="D394" t="n">
+        <v>257</v>
+      </c>
+      <c r="E394" t="n">
+        <v>257</v>
+      </c>
+      <c r="F394" t="n">
+        <v>500</v>
+      </c>
+      <c r="G394" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H394" t="n">
+        <v>2</v>
+      </c>
+      <c r="I394" t="n">
+        <v>21</v>
+      </c>
+      <c r="J394" t="n">
+        <v>6</v>
+      </c>
+      <c r="K394" t="n">
+        <v>45</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>8</v>
+      </c>
+      <c r="N394" t="inlineStr"/>
+      <c r="O394" t="inlineStr"/>
+      <c r="P394" t="inlineStr"/>
+      <c r="Q394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45709.32291666666</v>
+      </c>
+      <c r="B395" t="n">
+        <v>256</v>
+      </c>
+      <c r="C395" t="n">
+        <v>256</v>
+      </c>
+      <c r="D395" t="n">
+        <v>256</v>
+      </c>
+      <c r="E395" t="n">
+        <v>256</v>
+      </c>
+      <c r="F395" t="n">
+        <v>250</v>
+      </c>
+      <c r="G395" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H395" t="n">
+        <v>2</v>
+      </c>
+      <c r="I395" t="n">
+        <v>21</v>
+      </c>
+      <c r="J395" t="n">
+        <v>7</v>
+      </c>
+      <c r="K395" t="n">
+        <v>45</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>8</v>
+      </c>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr"/>
+      <c r="P395" t="inlineStr"/>
+      <c r="Q395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45709.36458333334</v>
+      </c>
+      <c r="B396" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="C396" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="D396" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="E396" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="F396" t="n">
+        <v>500</v>
+      </c>
+      <c r="G396" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H396" t="n">
+        <v>2</v>
+      </c>
+      <c r="I396" t="n">
+        <v>21</v>
+      </c>
+      <c r="J396" t="n">
+        <v>8</v>
+      </c>
+      <c r="K396" t="n">
+        <v>45</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>8</v>
+      </c>
+      <c r="N396" t="inlineStr"/>
+      <c r="O396" t="inlineStr"/>
+      <c r="P396" t="inlineStr"/>
+      <c r="Q396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45712.15625</v>
+      </c>
+      <c r="B397" t="n">
+        <v>259.3500061035156</v>
+      </c>
+      <c r="C397" t="n">
+        <v>259.3500061035156</v>
+      </c>
+      <c r="D397" t="n">
+        <v>259.3500061035156</v>
+      </c>
+      <c r="E397" t="n">
+        <v>259.3500061035156</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H397" t="n">
+        <v>2</v>
+      </c>
+      <c r="I397" t="n">
+        <v>24</v>
+      </c>
+      <c r="J397" t="n">
+        <v>3</v>
+      </c>
+      <c r="K397" t="n">
+        <v>45</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>9</v>
+      </c>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45712.23958333334</v>
+      </c>
+      <c r="B398" t="n">
+        <v>259</v>
+      </c>
+      <c r="C398" t="n">
+        <v>259</v>
+      </c>
+      <c r="D398" t="n">
+        <v>259</v>
+      </c>
+      <c r="E398" t="n">
+        <v>259</v>
+      </c>
+      <c r="F398" t="n">
+        <v>250</v>
+      </c>
+      <c r="G398" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H398" t="n">
+        <v>2</v>
+      </c>
+      <c r="I398" t="n">
+        <v>24</v>
+      </c>
+      <c r="J398" t="n">
+        <v>5</v>
+      </c>
+      <c r="K398" t="n">
+        <v>45</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>9</v>
+      </c>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45712.28125</v>
+      </c>
+      <c r="B399" t="n">
+        <v>258.8500061035156</v>
+      </c>
+      <c r="C399" t="n">
+        <v>259</v>
+      </c>
+      <c r="D399" t="n">
+        <v>258.8500061035156</v>
+      </c>
+      <c r="E399" t="n">
+        <v>259</v>
+      </c>
+      <c r="F399" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G399" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H399" t="n">
+        <v>2</v>
+      </c>
+      <c r="I399" t="n">
+        <v>24</v>
+      </c>
+      <c r="J399" t="n">
+        <v>6</v>
+      </c>
+      <c r="K399" t="n">
+        <v>45</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>9</v>
+      </c>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45712.40625</v>
+      </c>
+      <c r="B400" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="C400" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="D400" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="E400" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="F400" t="n">
+        <v>500</v>
+      </c>
+      <c r="G400" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H400" t="n">
+        <v>2</v>
+      </c>
+      <c r="I400" t="n">
+        <v>24</v>
+      </c>
+      <c r="J400" t="n">
+        <v>9</v>
+      </c>
+      <c r="K400" t="n">
+        <v>45</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>9</v>
+      </c>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
+      <c r="P400" t="inlineStr"/>
+      <c r="Q400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45713.15625</v>
+      </c>
+      <c r="B401" t="n">
+        <v>258</v>
+      </c>
+      <c r="C401" t="n">
+        <v>258</v>
+      </c>
+      <c r="D401" t="n">
+        <v>258</v>
+      </c>
+      <c r="E401" t="n">
+        <v>258</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H401" t="n">
+        <v>2</v>
+      </c>
+      <c r="I401" t="n">
+        <v>25</v>
+      </c>
+      <c r="J401" t="n">
+        <v>3</v>
+      </c>
+      <c r="K401" t="n">
+        <v>45</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>9</v>
+      </c>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45713.19791666666</v>
+      </c>
+      <c r="B402" t="n">
+        <v>257.1499938964844</v>
+      </c>
+      <c r="C402" t="n">
+        <v>260</v>
+      </c>
+      <c r="D402" t="n">
+        <v>257.1499938964844</v>
+      </c>
+      <c r="E402" t="n">
+        <v>260</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G402" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H402" t="n">
+        <v>2</v>
+      </c>
+      <c r="I402" t="n">
+        <v>25</v>
+      </c>
+      <c r="J402" t="n">
+        <v>4</v>
+      </c>
+      <c r="K402" t="n">
+        <v>45</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>9</v>
+      </c>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45713.28125</v>
+      </c>
+      <c r="B403" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="C403" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="D403" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="E403" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="F403" t="n">
+        <v>250</v>
+      </c>
+      <c r="G403" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H403" t="n">
+        <v>2</v>
+      </c>
+      <c r="I403" t="n">
+        <v>25</v>
+      </c>
+      <c r="J403" t="n">
+        <v>6</v>
+      </c>
+      <c r="K403" t="n">
+        <v>45</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>9</v>
+      </c>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45713.32291666666</v>
+      </c>
+      <c r="B404" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="C404" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="D404" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="E404" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="F404" t="n">
+        <v>750</v>
+      </c>
+      <c r="G404" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H404" t="n">
+        <v>2</v>
+      </c>
+      <c r="I404" t="n">
+        <v>25</v>
+      </c>
+      <c r="J404" t="n">
+        <v>7</v>
+      </c>
+      <c r="K404" t="n">
+        <v>45</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>9</v>
+      </c>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
+      <c r="P404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45715.19791666666</v>
+      </c>
+      <c r="B405" t="n">
+        <v>260</v>
+      </c>
+      <c r="C405" t="n">
+        <v>262</v>
+      </c>
+      <c r="D405" t="n">
+        <v>258</v>
+      </c>
+      <c r="E405" t="n">
+        <v>262</v>
+      </c>
+      <c r="F405" t="n">
+        <v>500</v>
+      </c>
+      <c r="G405" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H405" t="n">
+        <v>2</v>
+      </c>
+      <c r="I405" t="n">
+        <v>27</v>
+      </c>
+      <c r="J405" t="n">
+        <v>4</v>
+      </c>
+      <c r="K405" t="n">
+        <v>45</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>9</v>
+      </c>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45715.23958333334</v>
+      </c>
+      <c r="B406" t="n">
+        <v>262</v>
+      </c>
+      <c r="C406" t="n">
+        <v>262</v>
+      </c>
+      <c r="D406" t="n">
+        <v>262</v>
+      </c>
+      <c r="E406" t="n">
+        <v>262</v>
+      </c>
+      <c r="F406" t="n">
+        <v>250</v>
+      </c>
+      <c r="G406" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H406" t="n">
+        <v>2</v>
+      </c>
+      <c r="I406" t="n">
+        <v>27</v>
+      </c>
+      <c r="J406" t="n">
+        <v>5</v>
+      </c>
+      <c r="K406" t="n">
+        <v>45</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>9</v>
+      </c>
+      <c r="N406" t="inlineStr"/>
+      <c r="O406" t="inlineStr"/>
+      <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45715.28125</v>
+      </c>
+      <c r="B407" t="n">
+        <v>258</v>
+      </c>
+      <c r="C407" t="n">
+        <v>258</v>
+      </c>
+      <c r="D407" t="n">
+        <v>258</v>
+      </c>
+      <c r="E407" t="n">
+        <v>258</v>
+      </c>
+      <c r="F407" t="n">
+        <v>250</v>
+      </c>
+      <c r="G407" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2</v>
+      </c>
+      <c r="I407" t="n">
+        <v>27</v>
+      </c>
+      <c r="J407" t="n">
+        <v>6</v>
+      </c>
+      <c r="K407" t="n">
+        <v>45</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>9</v>
+      </c>
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45715.32291666666</v>
+      </c>
+      <c r="B408" t="n">
+        <v>261</v>
+      </c>
+      <c r="C408" t="n">
+        <v>262</v>
+      </c>
+      <c r="D408" t="n">
+        <v>258</v>
+      </c>
+      <c r="E408" t="n">
+        <v>258</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H408" t="n">
+        <v>2</v>
+      </c>
+      <c r="I408" t="n">
+        <v>27</v>
+      </c>
+      <c r="J408" t="n">
+        <v>7</v>
+      </c>
+      <c r="K408" t="n">
+        <v>45</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>9</v>
+      </c>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45715.36458333334</v>
+      </c>
+      <c r="B409" t="n">
+        <v>260</v>
+      </c>
+      <c r="C409" t="n">
+        <v>260</v>
+      </c>
+      <c r="D409" t="n">
+        <v>258</v>
+      </c>
+      <c r="E409" t="n">
+        <v>258</v>
+      </c>
+      <c r="F409" t="n">
+        <v>500</v>
+      </c>
+      <c r="G409" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2</v>
+      </c>
+      <c r="I409" t="n">
+        <v>27</v>
+      </c>
+      <c r="J409" t="n">
+        <v>8</v>
+      </c>
+      <c r="K409" t="n">
+        <v>45</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>9</v>
+      </c>
+      <c r="N409" t="inlineStr"/>
+      <c r="O409" t="inlineStr"/>
+      <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45716.15625</v>
+      </c>
+      <c r="B410" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="C410" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="D410" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="E410" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H410" t="n">
+        <v>2</v>
+      </c>
+      <c r="I410" t="n">
+        <v>28</v>
+      </c>
+      <c r="J410" t="n">
+        <v>3</v>
+      </c>
+      <c r="K410" t="n">
+        <v>45</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>9</v>
+      </c>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45716.23958333334</v>
+      </c>
+      <c r="B411" t="n">
+        <v>252</v>
+      </c>
+      <c r="C411" t="n">
+        <v>252</v>
+      </c>
+      <c r="D411" t="n">
+        <v>252</v>
+      </c>
+      <c r="E411" t="n">
+        <v>252</v>
+      </c>
+      <c r="F411" t="n">
+        <v>500</v>
+      </c>
+      <c r="G411" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2</v>
+      </c>
+      <c r="I411" t="n">
+        <v>28</v>
+      </c>
+      <c r="J411" t="n">
+        <v>5</v>
+      </c>
+      <c r="K411" t="n">
+        <v>45</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>9</v>
+      </c>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45716.28125</v>
+      </c>
+      <c r="B412" t="n">
+        <v>252</v>
+      </c>
+      <c r="C412" t="n">
+        <v>252</v>
+      </c>
+      <c r="D412" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="E412" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="F412" t="n">
+        <v>750</v>
+      </c>
+      <c r="G412" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H412" t="n">
+        <v>2</v>
+      </c>
+      <c r="I412" t="n">
+        <v>28</v>
+      </c>
+      <c r="J412" t="n">
+        <v>6</v>
+      </c>
+      <c r="K412" t="n">
+        <v>45</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>9</v>
+      </c>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45716.32291666666</v>
+      </c>
+      <c r="B413" t="n">
+        <v>246</v>
+      </c>
+      <c r="C413" t="n">
+        <v>246</v>
+      </c>
+      <c r="D413" t="n">
+        <v>246</v>
+      </c>
+      <c r="E413" t="n">
+        <v>246</v>
+      </c>
+      <c r="F413" t="n">
+        <v>250</v>
+      </c>
+      <c r="G413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H413" t="n">
+        <v>2</v>
+      </c>
+      <c r="I413" t="n">
+        <v>28</v>
+      </c>
+      <c r="J413" t="n">
+        <v>7</v>
+      </c>
+      <c r="K413" t="n">
+        <v>45</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>9</v>
+      </c>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q413"/>
+  <dimension ref="A1:Q452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20502,6 +20502,1761 @@
       <c r="P413" t="inlineStr"/>
       <c r="Q413" t="inlineStr"/>
     </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45719.15625</v>
+      </c>
+      <c r="B414" t="n">
+        <v>235</v>
+      </c>
+      <c r="C414" t="n">
+        <v>235</v>
+      </c>
+      <c r="D414" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E414" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="F414" t="n">
+        <v>500</v>
+      </c>
+      <c r="G414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H414" t="n">
+        <v>3</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3</v>
+      </c>
+      <c r="J414" t="n">
+        <v>3</v>
+      </c>
+      <c r="K414" t="n">
+        <v>45</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>10</v>
+      </c>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45719.19791666666</v>
+      </c>
+      <c r="B415" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="C415" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="D415" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E415" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="F415" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H415" t="n">
+        <v>3</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3</v>
+      </c>
+      <c r="J415" t="n">
+        <v>4</v>
+      </c>
+      <c r="K415" t="n">
+        <v>45</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>10</v>
+      </c>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45719.23958333334</v>
+      </c>
+      <c r="B416" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="C416" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="D416" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E416" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="F416" t="n">
+        <v>750</v>
+      </c>
+      <c r="G416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H416" t="n">
+        <v>3</v>
+      </c>
+      <c r="I416" t="n">
+        <v>3</v>
+      </c>
+      <c r="J416" t="n">
+        <v>5</v>
+      </c>
+      <c r="K416" t="n">
+        <v>45</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>10</v>
+      </c>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45719.28125</v>
+      </c>
+      <c r="B417" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="C417" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="D417" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E417" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H417" t="n">
+        <v>3</v>
+      </c>
+      <c r="I417" t="n">
+        <v>3</v>
+      </c>
+      <c r="J417" t="n">
+        <v>6</v>
+      </c>
+      <c r="K417" t="n">
+        <v>45</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>10</v>
+      </c>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45719.32291666666</v>
+      </c>
+      <c r="B418" t="n">
+        <v>236</v>
+      </c>
+      <c r="C418" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="D418" t="n">
+        <v>236</v>
+      </c>
+      <c r="E418" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H418" t="n">
+        <v>3</v>
+      </c>
+      <c r="I418" t="n">
+        <v>3</v>
+      </c>
+      <c r="J418" t="n">
+        <v>7</v>
+      </c>
+      <c r="K418" t="n">
+        <v>45</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>10</v>
+      </c>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45719.40625</v>
+      </c>
+      <c r="B419" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="C419" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="D419" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E419" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="F419" t="n">
+        <v>250</v>
+      </c>
+      <c r="G419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H419" t="n">
+        <v>3</v>
+      </c>
+      <c r="I419" t="n">
+        <v>3</v>
+      </c>
+      <c r="J419" t="n">
+        <v>9</v>
+      </c>
+      <c r="K419" t="n">
+        <v>45</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>10</v>
+      </c>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45720.15625</v>
+      </c>
+      <c r="B420" t="n">
+        <v>230</v>
+      </c>
+      <c r="C420" t="n">
+        <v>230</v>
+      </c>
+      <c r="D420" t="n">
+        <v>223.0500030517578</v>
+      </c>
+      <c r="E420" t="n">
+        <v>225.1999969482422</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H420" t="n">
+        <v>3</v>
+      </c>
+      <c r="I420" t="n">
+        <v>4</v>
+      </c>
+      <c r="J420" t="n">
+        <v>3</v>
+      </c>
+      <c r="K420" t="n">
+        <v>45</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>10</v>
+      </c>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45720.23958333334</v>
+      </c>
+      <c r="B421" t="n">
+        <v>223.3500061035156</v>
+      </c>
+      <c r="C421" t="n">
+        <v>224.5500030517578</v>
+      </c>
+      <c r="D421" t="n">
+        <v>223.3500061035156</v>
+      </c>
+      <c r="E421" t="n">
+        <v>224.5500030517578</v>
+      </c>
+      <c r="F421" t="n">
+        <v>500</v>
+      </c>
+      <c r="G421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H421" t="n">
+        <v>3</v>
+      </c>
+      <c r="I421" t="n">
+        <v>4</v>
+      </c>
+      <c r="J421" t="n">
+        <v>5</v>
+      </c>
+      <c r="K421" t="n">
+        <v>45</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>10</v>
+      </c>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45720.28125</v>
+      </c>
+      <c r="B422" t="n">
+        <v>224.6000061035156</v>
+      </c>
+      <c r="C422" t="n">
+        <v>224.6000061035156</v>
+      </c>
+      <c r="D422" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="E422" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="F422" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H422" t="n">
+        <v>3</v>
+      </c>
+      <c r="I422" t="n">
+        <v>4</v>
+      </c>
+      <c r="J422" t="n">
+        <v>6</v>
+      </c>
+      <c r="K422" t="n">
+        <v>45</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>10</v>
+      </c>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45720.32291666666</v>
+      </c>
+      <c r="B423" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="C423" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="D423" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="E423" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="F423" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H423" t="n">
+        <v>3</v>
+      </c>
+      <c r="I423" t="n">
+        <v>4</v>
+      </c>
+      <c r="J423" t="n">
+        <v>7</v>
+      </c>
+      <c r="K423" t="n">
+        <v>45</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>10</v>
+      </c>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45720.40625</v>
+      </c>
+      <c r="B424" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="C424" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="D424" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="E424" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="F424" t="n">
+        <v>250</v>
+      </c>
+      <c r="G424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H424" t="n">
+        <v>3</v>
+      </c>
+      <c r="I424" t="n">
+        <v>4</v>
+      </c>
+      <c r="J424" t="n">
+        <v>9</v>
+      </c>
+      <c r="K424" t="n">
+        <v>45</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>10</v>
+      </c>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45721.15625</v>
+      </c>
+      <c r="B425" t="n">
+        <v>220</v>
+      </c>
+      <c r="C425" t="n">
+        <v>230</v>
+      </c>
+      <c r="D425" t="n">
+        <v>220</v>
+      </c>
+      <c r="E425" t="n">
+        <v>225</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H425" t="n">
+        <v>3</v>
+      </c>
+      <c r="I425" t="n">
+        <v>5</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3</v>
+      </c>
+      <c r="K425" t="n">
+        <v>45</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>10</v>
+      </c>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45721.19791666666</v>
+      </c>
+      <c r="B426" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="C426" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="D426" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="E426" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="F426" t="n">
+        <v>750</v>
+      </c>
+      <c r="G426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H426" t="n">
+        <v>3</v>
+      </c>
+      <c r="I426" t="n">
+        <v>5</v>
+      </c>
+      <c r="J426" t="n">
+        <v>4</v>
+      </c>
+      <c r="K426" t="n">
+        <v>45</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>10</v>
+      </c>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45721.23958333334</v>
+      </c>
+      <c r="B427" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="C427" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="D427" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="E427" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="F427" t="n">
+        <v>250</v>
+      </c>
+      <c r="G427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H427" t="n">
+        <v>3</v>
+      </c>
+      <c r="I427" t="n">
+        <v>5</v>
+      </c>
+      <c r="J427" t="n">
+        <v>5</v>
+      </c>
+      <c r="K427" t="n">
+        <v>45</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>10</v>
+      </c>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45721.28125</v>
+      </c>
+      <c r="B428" t="n">
+        <v>233.0500030517578</v>
+      </c>
+      <c r="C428" t="n">
+        <v>233.1000061035156</v>
+      </c>
+      <c r="D428" t="n">
+        <v>223</v>
+      </c>
+      <c r="E428" t="n">
+        <v>223</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H428" t="n">
+        <v>3</v>
+      </c>
+      <c r="I428" t="n">
+        <v>5</v>
+      </c>
+      <c r="J428" t="n">
+        <v>6</v>
+      </c>
+      <c r="K428" t="n">
+        <v>45</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>10</v>
+      </c>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45721.32291666666</v>
+      </c>
+      <c r="B429" t="n">
+        <v>225</v>
+      </c>
+      <c r="C429" t="n">
+        <v>227</v>
+      </c>
+      <c r="D429" t="n">
+        <v>224.75</v>
+      </c>
+      <c r="E429" t="n">
+        <v>227</v>
+      </c>
+      <c r="F429" t="n">
+        <v>31000</v>
+      </c>
+      <c r="G429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H429" t="n">
+        <v>3</v>
+      </c>
+      <c r="I429" t="n">
+        <v>5</v>
+      </c>
+      <c r="J429" t="n">
+        <v>7</v>
+      </c>
+      <c r="K429" t="n">
+        <v>45</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>10</v>
+      </c>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45721.36458333334</v>
+      </c>
+      <c r="B430" t="n">
+        <v>225.0500030517578</v>
+      </c>
+      <c r="C430" t="n">
+        <v>225.0500030517578</v>
+      </c>
+      <c r="D430" t="n">
+        <v>225.0500030517578</v>
+      </c>
+      <c r="E430" t="n">
+        <v>225.0500030517578</v>
+      </c>
+      <c r="F430" t="n">
+        <v>250</v>
+      </c>
+      <c r="G430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H430" t="n">
+        <v>3</v>
+      </c>
+      <c r="I430" t="n">
+        <v>5</v>
+      </c>
+      <c r="J430" t="n">
+        <v>8</v>
+      </c>
+      <c r="K430" t="n">
+        <v>45</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>10</v>
+      </c>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45721.40625</v>
+      </c>
+      <c r="B431" t="n">
+        <v>233</v>
+      </c>
+      <c r="C431" t="n">
+        <v>233</v>
+      </c>
+      <c r="D431" t="n">
+        <v>232.9499969482422</v>
+      </c>
+      <c r="E431" t="n">
+        <v>233</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H431" t="n">
+        <v>3</v>
+      </c>
+      <c r="I431" t="n">
+        <v>5</v>
+      </c>
+      <c r="J431" t="n">
+        <v>9</v>
+      </c>
+      <c r="K431" t="n">
+        <v>45</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>10</v>
+      </c>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45722.15625</v>
+      </c>
+      <c r="B432" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="C432" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="D432" t="n">
+        <v>230</v>
+      </c>
+      <c r="E432" t="n">
+        <v>230</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H432" t="n">
+        <v>3</v>
+      </c>
+      <c r="I432" t="n">
+        <v>6</v>
+      </c>
+      <c r="J432" t="n">
+        <v>3</v>
+      </c>
+      <c r="K432" t="n">
+        <v>45</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>10</v>
+      </c>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="inlineStr"/>
+      <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45722.19791666666</v>
+      </c>
+      <c r="B433" t="n">
+        <v>228</v>
+      </c>
+      <c r="C433" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="D433" t="n">
+        <v>227.0500030517578</v>
+      </c>
+      <c r="E433" t="n">
+        <v>228</v>
+      </c>
+      <c r="F433" t="n">
+        <v>12750</v>
+      </c>
+      <c r="G433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H433" t="n">
+        <v>3</v>
+      </c>
+      <c r="I433" t="n">
+        <v>6</v>
+      </c>
+      <c r="J433" t="n">
+        <v>4</v>
+      </c>
+      <c r="K433" t="n">
+        <v>45</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>10</v>
+      </c>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45722.23958333334</v>
+      </c>
+      <c r="B434" t="n">
+        <v>231</v>
+      </c>
+      <c r="C434" t="n">
+        <v>231</v>
+      </c>
+      <c r="D434" t="n">
+        <v>225</v>
+      </c>
+      <c r="E434" t="n">
+        <v>225</v>
+      </c>
+      <c r="F434" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H434" t="n">
+        <v>3</v>
+      </c>
+      <c r="I434" t="n">
+        <v>6</v>
+      </c>
+      <c r="J434" t="n">
+        <v>5</v>
+      </c>
+      <c r="K434" t="n">
+        <v>45</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>10</v>
+      </c>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45722.28125</v>
+      </c>
+      <c r="B435" t="n">
+        <v>225.0500030517578</v>
+      </c>
+      <c r="C435" t="n">
+        <v>225.0500030517578</v>
+      </c>
+      <c r="D435" t="n">
+        <v>223</v>
+      </c>
+      <c r="E435" t="n">
+        <v>224.0500030517578</v>
+      </c>
+      <c r="F435" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H435" t="n">
+        <v>3</v>
+      </c>
+      <c r="I435" t="n">
+        <v>6</v>
+      </c>
+      <c r="J435" t="n">
+        <v>6</v>
+      </c>
+      <c r="K435" t="n">
+        <v>45</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>10</v>
+      </c>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr"/>
+      <c r="Q435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45722.32291666666</v>
+      </c>
+      <c r="B436" t="n">
+        <v>230.5500030517578</v>
+      </c>
+      <c r="C436" t="n">
+        <v>230.5500030517578</v>
+      </c>
+      <c r="D436" t="n">
+        <v>224.0500030517578</v>
+      </c>
+      <c r="E436" t="n">
+        <v>224.0500030517578</v>
+      </c>
+      <c r="F436" t="n">
+        <v>750</v>
+      </c>
+      <c r="G436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H436" t="n">
+        <v>3</v>
+      </c>
+      <c r="I436" t="n">
+        <v>6</v>
+      </c>
+      <c r="J436" t="n">
+        <v>7</v>
+      </c>
+      <c r="K436" t="n">
+        <v>45</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M436" t="n">
+        <v>10</v>
+      </c>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr"/>
+      <c r="Q436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45722.36458333334</v>
+      </c>
+      <c r="B437" t="n">
+        <v>225</v>
+      </c>
+      <c r="C437" t="n">
+        <v>225</v>
+      </c>
+      <c r="D437" t="n">
+        <v>224.0500030517578</v>
+      </c>
+      <c r="E437" t="n">
+        <v>224.0500030517578</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H437" t="n">
+        <v>3</v>
+      </c>
+      <c r="I437" t="n">
+        <v>6</v>
+      </c>
+      <c r="J437" t="n">
+        <v>8</v>
+      </c>
+      <c r="K437" t="n">
+        <v>45</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M437" t="n">
+        <v>10</v>
+      </c>
+      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr"/>
+      <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45722.40625</v>
+      </c>
+      <c r="B438" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="C438" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="D438" t="n">
+        <v>226</v>
+      </c>
+      <c r="E438" t="n">
+        <v>227.4499969482422</v>
+      </c>
+      <c r="F438" t="n">
+        <v>500</v>
+      </c>
+      <c r="G438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H438" t="n">
+        <v>3</v>
+      </c>
+      <c r="I438" t="n">
+        <v>6</v>
+      </c>
+      <c r="J438" t="n">
+        <v>9</v>
+      </c>
+      <c r="K438" t="n">
+        <v>45</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M438" t="n">
+        <v>10</v>
+      </c>
+      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="inlineStr"/>
+      <c r="P438" t="inlineStr"/>
+      <c r="Q438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45723.15625</v>
+      </c>
+      <c r="B439" t="n">
+        <v>225</v>
+      </c>
+      <c r="C439" t="n">
+        <v>230</v>
+      </c>
+      <c r="D439" t="n">
+        <v>225</v>
+      </c>
+      <c r="E439" t="n">
+        <v>230</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H439" t="n">
+        <v>3</v>
+      </c>
+      <c r="I439" t="n">
+        <v>7</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3</v>
+      </c>
+      <c r="K439" t="n">
+        <v>45</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M439" t="n">
+        <v>10</v>
+      </c>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45723.19791666666</v>
+      </c>
+      <c r="B440" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="C440" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="D440" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="E440" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H440" t="n">
+        <v>3</v>
+      </c>
+      <c r="I440" t="n">
+        <v>7</v>
+      </c>
+      <c r="J440" t="n">
+        <v>4</v>
+      </c>
+      <c r="K440" t="n">
+        <v>45</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>10</v>
+      </c>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45723.23958333334</v>
+      </c>
+      <c r="B441" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="C441" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="D441" t="n">
+        <v>230</v>
+      </c>
+      <c r="E441" t="n">
+        <v>230</v>
+      </c>
+      <c r="F441" t="n">
+        <v>500</v>
+      </c>
+      <c r="G441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H441" t="n">
+        <v>3</v>
+      </c>
+      <c r="I441" t="n">
+        <v>7</v>
+      </c>
+      <c r="J441" t="n">
+        <v>5</v>
+      </c>
+      <c r="K441" t="n">
+        <v>45</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>10</v>
+      </c>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr"/>
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45723.28125</v>
+      </c>
+      <c r="B442" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="C442" t="n">
+        <v>231.6000061035156</v>
+      </c>
+      <c r="D442" t="n">
+        <v>231</v>
+      </c>
+      <c r="E442" t="n">
+        <v>231</v>
+      </c>
+      <c r="F442" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G442" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H442" t="n">
+        <v>3</v>
+      </c>
+      <c r="I442" t="n">
+        <v>7</v>
+      </c>
+      <c r="J442" t="n">
+        <v>6</v>
+      </c>
+      <c r="K442" t="n">
+        <v>45</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>10</v>
+      </c>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45723.32291666666</v>
+      </c>
+      <c r="B443" t="n">
+        <v>231</v>
+      </c>
+      <c r="C443" t="n">
+        <v>232.9499969482422</v>
+      </c>
+      <c r="D443" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="E443" t="n">
+        <v>232.9499969482422</v>
+      </c>
+      <c r="F443" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G443" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H443" t="n">
+        <v>3</v>
+      </c>
+      <c r="I443" t="n">
+        <v>7</v>
+      </c>
+      <c r="J443" t="n">
+        <v>7</v>
+      </c>
+      <c r="K443" t="n">
+        <v>45</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>10</v>
+      </c>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45723.36458333334</v>
+      </c>
+      <c r="B444" t="n">
+        <v>232.9499969482422</v>
+      </c>
+      <c r="C444" t="n">
+        <v>232.9499969482422</v>
+      </c>
+      <c r="D444" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="E444" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="F444" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G444" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H444" t="n">
+        <v>3</v>
+      </c>
+      <c r="I444" t="n">
+        <v>7</v>
+      </c>
+      <c r="J444" t="n">
+        <v>8</v>
+      </c>
+      <c r="K444" t="n">
+        <v>45</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>10</v>
+      </c>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr"/>
+      <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45723.40625</v>
+      </c>
+      <c r="B445" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="C445" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="D445" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="E445" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="F445" t="n">
+        <v>250</v>
+      </c>
+      <c r="G445" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H445" t="n">
+        <v>3</v>
+      </c>
+      <c r="I445" t="n">
+        <v>7</v>
+      </c>
+      <c r="J445" t="n">
+        <v>9</v>
+      </c>
+      <c r="K445" t="n">
+        <v>45</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M445" t="n">
+        <v>10</v>
+      </c>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45726.15625</v>
+      </c>
+      <c r="B446" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="C446" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="D446" t="n">
+        <v>221</v>
+      </c>
+      <c r="E446" t="n">
+        <v>221</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H446" t="n">
+        <v>3</v>
+      </c>
+      <c r="I446" t="n">
+        <v>10</v>
+      </c>
+      <c r="J446" t="n">
+        <v>3</v>
+      </c>
+      <c r="K446" t="n">
+        <v>45</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>11</v>
+      </c>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45726.19791666666</v>
+      </c>
+      <c r="B447" t="n">
+        <v>228.6000061035156</v>
+      </c>
+      <c r="C447" t="n">
+        <v>228.6000061035156</v>
+      </c>
+      <c r="D447" t="n">
+        <v>223.3500061035156</v>
+      </c>
+      <c r="E447" t="n">
+        <v>223.3999938964844</v>
+      </c>
+      <c r="F447" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G447" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H447" t="n">
+        <v>3</v>
+      </c>
+      <c r="I447" t="n">
+        <v>10</v>
+      </c>
+      <c r="J447" t="n">
+        <v>4</v>
+      </c>
+      <c r="K447" t="n">
+        <v>45</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>11</v>
+      </c>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45726.23958333334</v>
+      </c>
+      <c r="B448" t="n">
+        <v>223.1499938964844</v>
+      </c>
+      <c r="C448" t="n">
+        <v>224</v>
+      </c>
+      <c r="D448" t="n">
+        <v>217.6000061035156</v>
+      </c>
+      <c r="E448" t="n">
+        <v>217.6000061035156</v>
+      </c>
+      <c r="F448" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H448" t="n">
+        <v>3</v>
+      </c>
+      <c r="I448" t="n">
+        <v>10</v>
+      </c>
+      <c r="J448" t="n">
+        <v>5</v>
+      </c>
+      <c r="K448" t="n">
+        <v>45</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>11</v>
+      </c>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45726.28125</v>
+      </c>
+      <c r="B449" t="n">
+        <v>218</v>
+      </c>
+      <c r="C449" t="n">
+        <v>218</v>
+      </c>
+      <c r="D449" t="n">
+        <v>217.6000061035156</v>
+      </c>
+      <c r="E449" t="n">
+        <v>217.6000061035156</v>
+      </c>
+      <c r="F449" t="n">
+        <v>750</v>
+      </c>
+      <c r="G449" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H449" t="n">
+        <v>3</v>
+      </c>
+      <c r="I449" t="n">
+        <v>10</v>
+      </c>
+      <c r="J449" t="n">
+        <v>6</v>
+      </c>
+      <c r="K449" t="n">
+        <v>45</v>
+      </c>
+      <c r="L449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M449" t="n">
+        <v>11</v>
+      </c>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45726.32291666666</v>
+      </c>
+      <c r="B450" t="n">
+        <v>224.9499969482422</v>
+      </c>
+      <c r="C450" t="n">
+        <v>225.8000030517578</v>
+      </c>
+      <c r="D450" t="n">
+        <v>221</v>
+      </c>
+      <c r="E450" t="n">
+        <v>225.8000030517578</v>
+      </c>
+      <c r="F450" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H450" t="n">
+        <v>3</v>
+      </c>
+      <c r="I450" t="n">
+        <v>10</v>
+      </c>
+      <c r="J450" t="n">
+        <v>7</v>
+      </c>
+      <c r="K450" t="n">
+        <v>45</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" t="n">
+        <v>11</v>
+      </c>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45726.36458333334</v>
+      </c>
+      <c r="B451" t="n">
+        <v>220.1000061035156</v>
+      </c>
+      <c r="C451" t="n">
+        <v>225</v>
+      </c>
+      <c r="D451" t="n">
+        <v>220</v>
+      </c>
+      <c r="E451" t="n">
+        <v>220</v>
+      </c>
+      <c r="F451" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H451" t="n">
+        <v>3</v>
+      </c>
+      <c r="I451" t="n">
+        <v>10</v>
+      </c>
+      <c r="J451" t="n">
+        <v>8</v>
+      </c>
+      <c r="K451" t="n">
+        <v>45</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>11</v>
+      </c>
+      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="inlineStr"/>
+      <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45726.40625</v>
+      </c>
+      <c r="B452" t="n">
+        <v>221</v>
+      </c>
+      <c r="C452" t="n">
+        <v>224</v>
+      </c>
+      <c r="D452" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="E452" t="n">
+        <v>223.1499938964844</v>
+      </c>
+      <c r="F452" t="n">
+        <v>34250</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H452" t="n">
+        <v>3</v>
+      </c>
+      <c r="I452" t="n">
+        <v>10</v>
+      </c>
+      <c r="J452" t="n">
+        <v>9</v>
+      </c>
+      <c r="K452" t="n">
+        <v>45</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>11</v>
+      </c>
+      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="inlineStr"/>
+      <c r="P452" t="inlineStr"/>
+      <c r="Q452" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q452"/>
+  <dimension ref="A1:Q532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22257,6 +22257,3606 @@
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="inlineStr"/>
     </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45727.15625</v>
+      </c>
+      <c r="B453" t="n">
+        <v>219</v>
+      </c>
+      <c r="C453" t="n">
+        <v>219</v>
+      </c>
+      <c r="D453" t="n">
+        <v>212</v>
+      </c>
+      <c r="E453" t="n">
+        <v>212</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H453" t="n">
+        <v>3</v>
+      </c>
+      <c r="I453" t="n">
+        <v>11</v>
+      </c>
+      <c r="J453" t="n">
+        <v>3</v>
+      </c>
+      <c r="K453" t="n">
+        <v>45</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>11</v>
+      </c>
+      <c r="N453" t="inlineStr"/>
+      <c r="O453" t="inlineStr"/>
+      <c r="P453" t="inlineStr"/>
+      <c r="Q453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45727.19791666666</v>
+      </c>
+      <c r="B454" t="n">
+        <v>215</v>
+      </c>
+      <c r="C454" t="n">
+        <v>218</v>
+      </c>
+      <c r="D454" t="n">
+        <v>215</v>
+      </c>
+      <c r="E454" t="n">
+        <v>215</v>
+      </c>
+      <c r="F454" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H454" t="n">
+        <v>3</v>
+      </c>
+      <c r="I454" t="n">
+        <v>11</v>
+      </c>
+      <c r="J454" t="n">
+        <v>4</v>
+      </c>
+      <c r="K454" t="n">
+        <v>45</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>11</v>
+      </c>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr"/>
+      <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45727.23958333334</v>
+      </c>
+      <c r="B455" t="n">
+        <v>216</v>
+      </c>
+      <c r="C455" t="n">
+        <v>218</v>
+      </c>
+      <c r="D455" t="n">
+        <v>212</v>
+      </c>
+      <c r="E455" t="n">
+        <v>215.8500061035156</v>
+      </c>
+      <c r="F455" t="n">
+        <v>36250</v>
+      </c>
+      <c r="G455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H455" t="n">
+        <v>3</v>
+      </c>
+      <c r="I455" t="n">
+        <v>11</v>
+      </c>
+      <c r="J455" t="n">
+        <v>5</v>
+      </c>
+      <c r="K455" t="n">
+        <v>45</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>11</v>
+      </c>
+      <c r="N455" t="inlineStr"/>
+      <c r="O455" t="inlineStr"/>
+      <c r="P455" t="inlineStr"/>
+      <c r="Q455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45727.28125</v>
+      </c>
+      <c r="B456" t="n">
+        <v>214</v>
+      </c>
+      <c r="C456" t="n">
+        <v>217.8000030517578</v>
+      </c>
+      <c r="D456" t="n">
+        <v>212</v>
+      </c>
+      <c r="E456" t="n">
+        <v>214.9499969482422</v>
+      </c>
+      <c r="F456" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H456" t="n">
+        <v>3</v>
+      </c>
+      <c r="I456" t="n">
+        <v>11</v>
+      </c>
+      <c r="J456" t="n">
+        <v>6</v>
+      </c>
+      <c r="K456" t="n">
+        <v>45</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>11</v>
+      </c>
+      <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr"/>
+      <c r="P456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45727.32291666666</v>
+      </c>
+      <c r="B457" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C457" t="n">
+        <v>214.9499969482422</v>
+      </c>
+      <c r="D457" t="n">
+        <v>212</v>
+      </c>
+      <c r="E457" t="n">
+        <v>212</v>
+      </c>
+      <c r="F457" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H457" t="n">
+        <v>3</v>
+      </c>
+      <c r="I457" t="n">
+        <v>11</v>
+      </c>
+      <c r="J457" t="n">
+        <v>7</v>
+      </c>
+      <c r="K457" t="n">
+        <v>45</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>11</v>
+      </c>
+      <c r="N457" t="inlineStr"/>
+      <c r="O457" t="inlineStr"/>
+      <c r="P457" t="inlineStr"/>
+      <c r="Q457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45727.36458333334</v>
+      </c>
+      <c r="B458" t="n">
+        <v>212</v>
+      </c>
+      <c r="C458" t="n">
+        <v>212</v>
+      </c>
+      <c r="D458" t="n">
+        <v>212</v>
+      </c>
+      <c r="E458" t="n">
+        <v>212</v>
+      </c>
+      <c r="F458" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H458" t="n">
+        <v>3</v>
+      </c>
+      <c r="I458" t="n">
+        <v>11</v>
+      </c>
+      <c r="J458" t="n">
+        <v>8</v>
+      </c>
+      <c r="K458" t="n">
+        <v>45</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>11</v>
+      </c>
+      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="inlineStr"/>
+      <c r="Q458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45728.15625</v>
+      </c>
+      <c r="B459" t="n">
+        <v>203</v>
+      </c>
+      <c r="C459" t="n">
+        <v>203</v>
+      </c>
+      <c r="D459" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="E459" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H459" t="n">
+        <v>3</v>
+      </c>
+      <c r="I459" t="n">
+        <v>12</v>
+      </c>
+      <c r="J459" t="n">
+        <v>3</v>
+      </c>
+      <c r="K459" t="n">
+        <v>45</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>11</v>
+      </c>
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr"/>
+      <c r="Q459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45728.19791666666</v>
+      </c>
+      <c r="B460" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="C460" t="n">
+        <v>204.9499969482422</v>
+      </c>
+      <c r="D460" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="E460" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="F460" t="n">
+        <v>12750</v>
+      </c>
+      <c r="G460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H460" t="n">
+        <v>3</v>
+      </c>
+      <c r="I460" t="n">
+        <v>12</v>
+      </c>
+      <c r="J460" t="n">
+        <v>4</v>
+      </c>
+      <c r="K460" t="n">
+        <v>45</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>11</v>
+      </c>
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45728.23958333334</v>
+      </c>
+      <c r="B461" t="n">
+        <v>202</v>
+      </c>
+      <c r="C461" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="D461" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="E461" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="F461" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H461" t="n">
+        <v>3</v>
+      </c>
+      <c r="I461" t="n">
+        <v>12</v>
+      </c>
+      <c r="J461" t="n">
+        <v>5</v>
+      </c>
+      <c r="K461" t="n">
+        <v>45</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>11</v>
+      </c>
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45728.28125</v>
+      </c>
+      <c r="B462" t="n">
+        <v>202</v>
+      </c>
+      <c r="C462" t="n">
+        <v>202</v>
+      </c>
+      <c r="D462" t="n">
+        <v>201.6000061035156</v>
+      </c>
+      <c r="E462" t="n">
+        <v>201.6499938964844</v>
+      </c>
+      <c r="F462" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H462" t="n">
+        <v>3</v>
+      </c>
+      <c r="I462" t="n">
+        <v>12</v>
+      </c>
+      <c r="J462" t="n">
+        <v>6</v>
+      </c>
+      <c r="K462" t="n">
+        <v>45</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>11</v>
+      </c>
+      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45728.32291666666</v>
+      </c>
+      <c r="B463" t="n">
+        <v>201.6000061035156</v>
+      </c>
+      <c r="C463" t="n">
+        <v>209</v>
+      </c>
+      <c r="D463" t="n">
+        <v>201.6000061035156</v>
+      </c>
+      <c r="E463" t="n">
+        <v>209</v>
+      </c>
+      <c r="F463" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H463" t="n">
+        <v>3</v>
+      </c>
+      <c r="I463" t="n">
+        <v>12</v>
+      </c>
+      <c r="J463" t="n">
+        <v>7</v>
+      </c>
+      <c r="K463" t="n">
+        <v>45</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>11</v>
+      </c>
+      <c r="N463" t="inlineStr"/>
+      <c r="O463" t="inlineStr"/>
+      <c r="P463" t="inlineStr"/>
+      <c r="Q463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45728.36458333334</v>
+      </c>
+      <c r="B464" t="n">
+        <v>203</v>
+      </c>
+      <c r="C464" t="n">
+        <v>203</v>
+      </c>
+      <c r="D464" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="E464" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="F464" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H464" t="n">
+        <v>3</v>
+      </c>
+      <c r="I464" t="n">
+        <v>12</v>
+      </c>
+      <c r="J464" t="n">
+        <v>8</v>
+      </c>
+      <c r="K464" t="n">
+        <v>45</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>11</v>
+      </c>
+      <c r="N464" t="inlineStr"/>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45729.15625</v>
+      </c>
+      <c r="B465" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="C465" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="D465" t="n">
+        <v>193</v>
+      </c>
+      <c r="E465" t="n">
+        <v>193</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0</v>
+      </c>
+      <c r="G465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H465" t="n">
+        <v>3</v>
+      </c>
+      <c r="I465" t="n">
+        <v>13</v>
+      </c>
+      <c r="J465" t="n">
+        <v>3</v>
+      </c>
+      <c r="K465" t="n">
+        <v>45</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M465" t="n">
+        <v>11</v>
+      </c>
+      <c r="N465" t="inlineStr"/>
+      <c r="O465" t="inlineStr"/>
+      <c r="P465" t="inlineStr"/>
+      <c r="Q465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45729.19791666666</v>
+      </c>
+      <c r="B466" t="n">
+        <v>194.1999969482422</v>
+      </c>
+      <c r="C466" t="n">
+        <v>196</v>
+      </c>
+      <c r="D466" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E466" t="n">
+        <v>196</v>
+      </c>
+      <c r="F466" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H466" t="n">
+        <v>3</v>
+      </c>
+      <c r="I466" t="n">
+        <v>13</v>
+      </c>
+      <c r="J466" t="n">
+        <v>4</v>
+      </c>
+      <c r="K466" t="n">
+        <v>45</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>11</v>
+      </c>
+      <c r="N466" t="inlineStr"/>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
+      <c r="Q466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45729.23958333334</v>
+      </c>
+      <c r="B467" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="C467" t="n">
+        <v>194</v>
+      </c>
+      <c r="D467" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E467" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F467" t="n">
+        <v>15250</v>
+      </c>
+      <c r="G467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H467" t="n">
+        <v>3</v>
+      </c>
+      <c r="I467" t="n">
+        <v>13</v>
+      </c>
+      <c r="J467" t="n">
+        <v>5</v>
+      </c>
+      <c r="K467" t="n">
+        <v>45</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>11</v>
+      </c>
+      <c r="N467" t="inlineStr"/>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45729.28125</v>
+      </c>
+      <c r="B468" t="n">
+        <v>195.8500061035156</v>
+      </c>
+      <c r="C468" t="n">
+        <v>195.8500061035156</v>
+      </c>
+      <c r="D468" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E468" t="n">
+        <v>193</v>
+      </c>
+      <c r="F468" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H468" t="n">
+        <v>3</v>
+      </c>
+      <c r="I468" t="n">
+        <v>13</v>
+      </c>
+      <c r="J468" t="n">
+        <v>6</v>
+      </c>
+      <c r="K468" t="n">
+        <v>45</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>11</v>
+      </c>
+      <c r="N468" t="inlineStr"/>
+      <c r="O468" t="inlineStr"/>
+      <c r="P468" t="inlineStr"/>
+      <c r="Q468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45729.32291666666</v>
+      </c>
+      <c r="B469" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="C469" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="D469" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E469" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F469" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G469" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H469" t="n">
+        <v>3</v>
+      </c>
+      <c r="I469" t="n">
+        <v>13</v>
+      </c>
+      <c r="J469" t="n">
+        <v>7</v>
+      </c>
+      <c r="K469" t="n">
+        <v>45</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>11</v>
+      </c>
+      <c r="N469" t="inlineStr"/>
+      <c r="O469" t="inlineStr"/>
+      <c r="P469" t="inlineStr"/>
+      <c r="Q469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45729.36458333334</v>
+      </c>
+      <c r="B470" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="C470" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="D470" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E470" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F470" t="n">
+        <v>750</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H470" t="n">
+        <v>3</v>
+      </c>
+      <c r="I470" t="n">
+        <v>13</v>
+      </c>
+      <c r="J470" t="n">
+        <v>8</v>
+      </c>
+      <c r="K470" t="n">
+        <v>45</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>11</v>
+      </c>
+      <c r="N470" t="inlineStr"/>
+      <c r="O470" t="inlineStr"/>
+      <c r="P470" t="inlineStr"/>
+      <c r="Q470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45729.40625</v>
+      </c>
+      <c r="B471" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="C471" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="D471" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E471" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="F471" t="n">
+        <v>250</v>
+      </c>
+      <c r="G471" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H471" t="n">
+        <v>3</v>
+      </c>
+      <c r="I471" t="n">
+        <v>13</v>
+      </c>
+      <c r="J471" t="n">
+        <v>9</v>
+      </c>
+      <c r="K471" t="n">
+        <v>45</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M471" t="n">
+        <v>11</v>
+      </c>
+      <c r="N471" t="inlineStr"/>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45733.15625</v>
+      </c>
+      <c r="B472" t="n">
+        <v>187</v>
+      </c>
+      <c r="C472" t="n">
+        <v>191.4499969482422</v>
+      </c>
+      <c r="D472" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="E472" t="n">
+        <v>188</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0</v>
+      </c>
+      <c r="G472" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H472" t="n">
+        <v>3</v>
+      </c>
+      <c r="I472" t="n">
+        <v>17</v>
+      </c>
+      <c r="J472" t="n">
+        <v>3</v>
+      </c>
+      <c r="K472" t="n">
+        <v>45</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>12</v>
+      </c>
+      <c r="N472" t="inlineStr"/>
+      <c r="O472" t="inlineStr"/>
+      <c r="P472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B473" t="n">
+        <v>188</v>
+      </c>
+      <c r="C473" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="D473" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="E473" t="n">
+        <v>181.8500061035156</v>
+      </c>
+      <c r="F473" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G473" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H473" t="n">
+        <v>3</v>
+      </c>
+      <c r="I473" t="n">
+        <v>17</v>
+      </c>
+      <c r="J473" t="n">
+        <v>4</v>
+      </c>
+      <c r="K473" t="n">
+        <v>45</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>12</v>
+      </c>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr"/>
+      <c r="P473" t="inlineStr"/>
+      <c r="Q473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B474" t="n">
+        <v>187.9499969482422</v>
+      </c>
+      <c r="C474" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D474" t="n">
+        <v>187.9499969482422</v>
+      </c>
+      <c r="E474" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F474" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G474" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H474" t="n">
+        <v>3</v>
+      </c>
+      <c r="I474" t="n">
+        <v>17</v>
+      </c>
+      <c r="J474" t="n">
+        <v>5</v>
+      </c>
+      <c r="K474" t="n">
+        <v>45</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>12</v>
+      </c>
+      <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr"/>
+      <c r="P474" t="inlineStr"/>
+      <c r="Q474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45733.28125</v>
+      </c>
+      <c r="B475" t="n">
+        <v>184</v>
+      </c>
+      <c r="C475" t="n">
+        <v>189</v>
+      </c>
+      <c r="D475" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="E475" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="F475" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G475" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H475" t="n">
+        <v>3</v>
+      </c>
+      <c r="I475" t="n">
+        <v>17</v>
+      </c>
+      <c r="J475" t="n">
+        <v>6</v>
+      </c>
+      <c r="K475" t="n">
+        <v>45</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M475" t="n">
+        <v>12</v>
+      </c>
+      <c r="N475" t="inlineStr"/>
+      <c r="O475" t="inlineStr"/>
+      <c r="P475" t="inlineStr"/>
+      <c r="Q475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B476" t="n">
+        <v>182</v>
+      </c>
+      <c r="C476" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="D476" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="E476" t="n">
+        <v>182</v>
+      </c>
+      <c r="F476" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G476" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H476" t="n">
+        <v>3</v>
+      </c>
+      <c r="I476" t="n">
+        <v>17</v>
+      </c>
+      <c r="J476" t="n">
+        <v>7</v>
+      </c>
+      <c r="K476" t="n">
+        <v>45</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M476" t="n">
+        <v>12</v>
+      </c>
+      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr"/>
+      <c r="P476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B477" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="C477" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="D477" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="E477" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H477" t="n">
+        <v>3</v>
+      </c>
+      <c r="I477" t="n">
+        <v>17</v>
+      </c>
+      <c r="J477" t="n">
+        <v>8</v>
+      </c>
+      <c r="K477" t="n">
+        <v>45</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M477" t="n">
+        <v>12</v>
+      </c>
+      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr"/>
+      <c r="P477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45734.15625</v>
+      </c>
+      <c r="B478" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="C478" t="n">
+        <v>184</v>
+      </c>
+      <c r="D478" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E478" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="F478" t="n">
+        <v>39000</v>
+      </c>
+      <c r="G478" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H478" t="n">
+        <v>3</v>
+      </c>
+      <c r="I478" t="n">
+        <v>18</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3</v>
+      </c>
+      <c r="K478" t="n">
+        <v>45</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M478" t="n">
+        <v>12</v>
+      </c>
+      <c r="N478" t="inlineStr"/>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B479" t="n">
+        <v>175.0500030517578</v>
+      </c>
+      <c r="C479" t="n">
+        <v>176</v>
+      </c>
+      <c r="D479" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E479" t="n">
+        <v>176</v>
+      </c>
+      <c r="F479" t="n">
+        <v>14750</v>
+      </c>
+      <c r="G479" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H479" t="n">
+        <v>3</v>
+      </c>
+      <c r="I479" t="n">
+        <v>18</v>
+      </c>
+      <c r="J479" t="n">
+        <v>4</v>
+      </c>
+      <c r="K479" t="n">
+        <v>45</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M479" t="n">
+        <v>12</v>
+      </c>
+      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr"/>
+      <c r="P479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B480" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="C480" t="n">
+        <v>174</v>
+      </c>
+      <c r="D480" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E480" t="n">
+        <v>174</v>
+      </c>
+      <c r="F480" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G480" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H480" t="n">
+        <v>3</v>
+      </c>
+      <c r="I480" t="n">
+        <v>18</v>
+      </c>
+      <c r="J480" t="n">
+        <v>5</v>
+      </c>
+      <c r="K480" t="n">
+        <v>45</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M480" t="n">
+        <v>12</v>
+      </c>
+      <c r="N480" t="inlineStr"/>
+      <c r="O480" t="inlineStr"/>
+      <c r="P480" t="inlineStr"/>
+      <c r="Q480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45734.28125</v>
+      </c>
+      <c r="B481" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="C481" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="D481" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E481" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="F481" t="n">
+        <v>4250</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H481" t="n">
+        <v>3</v>
+      </c>
+      <c r="I481" t="n">
+        <v>18</v>
+      </c>
+      <c r="J481" t="n">
+        <v>6</v>
+      </c>
+      <c r="K481" t="n">
+        <v>45</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>12</v>
+      </c>
+      <c r="N481" t="inlineStr"/>
+      <c r="O481" t="inlineStr"/>
+      <c r="P481" t="inlineStr"/>
+      <c r="Q481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B482" t="n">
+        <v>172.8500061035156</v>
+      </c>
+      <c r="C482" t="n">
+        <v>172.8500061035156</v>
+      </c>
+      <c r="D482" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E482" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="F482" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G482" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H482" t="n">
+        <v>3</v>
+      </c>
+      <c r="I482" t="n">
+        <v>18</v>
+      </c>
+      <c r="J482" t="n">
+        <v>7</v>
+      </c>
+      <c r="K482" t="n">
+        <v>45</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M482" t="n">
+        <v>12</v>
+      </c>
+      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B483" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="C483" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="D483" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E483" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="F483" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G483" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H483" t="n">
+        <v>3</v>
+      </c>
+      <c r="I483" t="n">
+        <v>18</v>
+      </c>
+      <c r="J483" t="n">
+        <v>8</v>
+      </c>
+      <c r="K483" t="n">
+        <v>45</v>
+      </c>
+      <c r="L483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M483" t="n">
+        <v>12</v>
+      </c>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45734.40625</v>
+      </c>
+      <c r="B484" t="n">
+        <v>179.9499969482422</v>
+      </c>
+      <c r="C484" t="n">
+        <v>182</v>
+      </c>
+      <c r="D484" t="n">
+        <v>172.8500061035156</v>
+      </c>
+      <c r="E484" t="n">
+        <v>177.1999969482422</v>
+      </c>
+      <c r="F484" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G484" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H484" t="n">
+        <v>3</v>
+      </c>
+      <c r="I484" t="n">
+        <v>18</v>
+      </c>
+      <c r="J484" t="n">
+        <v>9</v>
+      </c>
+      <c r="K484" t="n">
+        <v>45</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M484" t="n">
+        <v>12</v>
+      </c>
+      <c r="N484" t="inlineStr"/>
+      <c r="O484" t="inlineStr"/>
+      <c r="P484" t="inlineStr"/>
+      <c r="Q484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45735.15625</v>
+      </c>
+      <c r="B485" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="C485" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="D485" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="E485" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="F485" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G485" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H485" t="n">
+        <v>3</v>
+      </c>
+      <c r="I485" t="n">
+        <v>19</v>
+      </c>
+      <c r="J485" t="n">
+        <v>3</v>
+      </c>
+      <c r="K485" t="n">
+        <v>45</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M485" t="n">
+        <v>12</v>
+      </c>
+      <c r="N485" t="inlineStr"/>
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45735.19791666666</v>
+      </c>
+      <c r="B486" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="C486" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="D486" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="E486" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="F486" t="n">
+        <v>250</v>
+      </c>
+      <c r="G486" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H486" t="n">
+        <v>3</v>
+      </c>
+      <c r="I486" t="n">
+        <v>19</v>
+      </c>
+      <c r="J486" t="n">
+        <v>4</v>
+      </c>
+      <c r="K486" t="n">
+        <v>45</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M486" t="n">
+        <v>12</v>
+      </c>
+      <c r="N486" t="inlineStr"/>
+      <c r="O486" t="inlineStr"/>
+      <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45735.23958333334</v>
+      </c>
+      <c r="B487" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="C487" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="D487" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="E487" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="F487" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G487" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H487" t="n">
+        <v>3</v>
+      </c>
+      <c r="I487" t="n">
+        <v>19</v>
+      </c>
+      <c r="J487" t="n">
+        <v>5</v>
+      </c>
+      <c r="K487" t="n">
+        <v>45</v>
+      </c>
+      <c r="L487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M487" t="n">
+        <v>12</v>
+      </c>
+      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr"/>
+      <c r="P487" t="inlineStr"/>
+      <c r="Q487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45735.36458333334</v>
+      </c>
+      <c r="B488" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="C488" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="D488" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="E488" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="F488" t="n">
+        <v>500</v>
+      </c>
+      <c r="G488" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H488" t="n">
+        <v>3</v>
+      </c>
+      <c r="I488" t="n">
+        <v>19</v>
+      </c>
+      <c r="J488" t="n">
+        <v>8</v>
+      </c>
+      <c r="K488" t="n">
+        <v>45</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M488" t="n">
+        <v>12</v>
+      </c>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45736.15625</v>
+      </c>
+      <c r="B489" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="C489" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="D489" t="n">
+        <v>189</v>
+      </c>
+      <c r="E489" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0</v>
+      </c>
+      <c r="G489" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H489" t="n">
+        <v>3</v>
+      </c>
+      <c r="I489" t="n">
+        <v>20</v>
+      </c>
+      <c r="J489" t="n">
+        <v>3</v>
+      </c>
+      <c r="K489" t="n">
+        <v>45</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>12</v>
+      </c>
+      <c r="N489" t="inlineStr"/>
+      <c r="O489" t="inlineStr"/>
+      <c r="P489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45736.19791666666</v>
+      </c>
+      <c r="B490" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="C490" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="D490" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="E490" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F490" t="n">
+        <v>250</v>
+      </c>
+      <c r="G490" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H490" t="n">
+        <v>3</v>
+      </c>
+      <c r="I490" t="n">
+        <v>20</v>
+      </c>
+      <c r="J490" t="n">
+        <v>4</v>
+      </c>
+      <c r="K490" t="n">
+        <v>45</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M490" t="n">
+        <v>12</v>
+      </c>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr"/>
+      <c r="P490" t="inlineStr"/>
+      <c r="Q490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45736.23958333334</v>
+      </c>
+      <c r="B491" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="C491" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="D491" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="E491" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F491" t="n">
+        <v>500</v>
+      </c>
+      <c r="G491" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H491" t="n">
+        <v>3</v>
+      </c>
+      <c r="I491" t="n">
+        <v>20</v>
+      </c>
+      <c r="J491" t="n">
+        <v>5</v>
+      </c>
+      <c r="K491" t="n">
+        <v>45</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M491" t="n">
+        <v>12</v>
+      </c>
+      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr"/>
+      <c r="P491" t="inlineStr"/>
+      <c r="Q491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45736.28125</v>
+      </c>
+      <c r="B492" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="C492" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="D492" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="E492" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F492" t="n">
+        <v>250</v>
+      </c>
+      <c r="G492" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H492" t="n">
+        <v>3</v>
+      </c>
+      <c r="I492" t="n">
+        <v>20</v>
+      </c>
+      <c r="J492" t="n">
+        <v>6</v>
+      </c>
+      <c r="K492" t="n">
+        <v>45</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M492" t="n">
+        <v>12</v>
+      </c>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr"/>
+      <c r="P492" t="inlineStr"/>
+      <c r="Q492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45736.36458333334</v>
+      </c>
+      <c r="B493" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="C493" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="D493" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="E493" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F493" t="n">
+        <v>250</v>
+      </c>
+      <c r="G493" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H493" t="n">
+        <v>3</v>
+      </c>
+      <c r="I493" t="n">
+        <v>20</v>
+      </c>
+      <c r="J493" t="n">
+        <v>8</v>
+      </c>
+      <c r="K493" t="n">
+        <v>45</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M493" t="n">
+        <v>12</v>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr"/>
+      <c r="P493" t="inlineStr"/>
+      <c r="Q493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45737.15625</v>
+      </c>
+      <c r="B494" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="C494" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="D494" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="E494" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="F494" t="n">
+        <v>10250</v>
+      </c>
+      <c r="G494" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H494" t="n">
+        <v>3</v>
+      </c>
+      <c r="I494" t="n">
+        <v>21</v>
+      </c>
+      <c r="J494" t="n">
+        <v>3</v>
+      </c>
+      <c r="K494" t="n">
+        <v>45</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M494" t="n">
+        <v>12</v>
+      </c>
+      <c r="N494" t="inlineStr"/>
+      <c r="O494" t="inlineStr"/>
+      <c r="P494" t="inlineStr"/>
+      <c r="Q494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45737.19791666666</v>
+      </c>
+      <c r="B495" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="C495" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="D495" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="E495" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="F495" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G495" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H495" t="n">
+        <v>3</v>
+      </c>
+      <c r="I495" t="n">
+        <v>21</v>
+      </c>
+      <c r="J495" t="n">
+        <v>4</v>
+      </c>
+      <c r="K495" t="n">
+        <v>45</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M495" t="n">
+        <v>12</v>
+      </c>
+      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr"/>
+      <c r="P495" t="inlineStr"/>
+      <c r="Q495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45737.23958333334</v>
+      </c>
+      <c r="B496" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="C496" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="D496" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="E496" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="F496" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H496" t="n">
+        <v>3</v>
+      </c>
+      <c r="I496" t="n">
+        <v>21</v>
+      </c>
+      <c r="J496" t="n">
+        <v>5</v>
+      </c>
+      <c r="K496" t="n">
+        <v>45</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M496" t="n">
+        <v>12</v>
+      </c>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr"/>
+      <c r="P496" t="inlineStr"/>
+      <c r="Q496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45737.28125</v>
+      </c>
+      <c r="B497" t="n">
+        <v>201</v>
+      </c>
+      <c r="C497" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="D497" t="n">
+        <v>201</v>
+      </c>
+      <c r="E497" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="F497" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H497" t="n">
+        <v>3</v>
+      </c>
+      <c r="I497" t="n">
+        <v>21</v>
+      </c>
+      <c r="J497" t="n">
+        <v>6</v>
+      </c>
+      <c r="K497" t="n">
+        <v>45</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>12</v>
+      </c>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr"/>
+      <c r="P497" t="inlineStr"/>
+      <c r="Q497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45737.40625</v>
+      </c>
+      <c r="B498" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="C498" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="D498" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="E498" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="F498" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H498" t="n">
+        <v>3</v>
+      </c>
+      <c r="I498" t="n">
+        <v>21</v>
+      </c>
+      <c r="J498" t="n">
+        <v>9</v>
+      </c>
+      <c r="K498" t="n">
+        <v>45</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>12</v>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr"/>
+      <c r="P498" t="inlineStr"/>
+      <c r="Q498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45740.15625</v>
+      </c>
+      <c r="B499" t="n">
+        <v>194.8999938964844</v>
+      </c>
+      <c r="C499" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="D499" t="n">
+        <v>194.8500061035156</v>
+      </c>
+      <c r="E499" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="F499" t="n">
+        <v>14750</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H499" t="n">
+        <v>3</v>
+      </c>
+      <c r="I499" t="n">
+        <v>24</v>
+      </c>
+      <c r="J499" t="n">
+        <v>3</v>
+      </c>
+      <c r="K499" t="n">
+        <v>45</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>13</v>
+      </c>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr"/>
+      <c r="P499" t="inlineStr"/>
+      <c r="Q499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45740.19791666666</v>
+      </c>
+      <c r="B500" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="C500" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="D500" t="n">
+        <v>200.1000061035156</v>
+      </c>
+      <c r="E500" t="n">
+        <v>202</v>
+      </c>
+      <c r="F500" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H500" t="n">
+        <v>3</v>
+      </c>
+      <c r="I500" t="n">
+        <v>24</v>
+      </c>
+      <c r="J500" t="n">
+        <v>4</v>
+      </c>
+      <c r="K500" t="n">
+        <v>45</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>13</v>
+      </c>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr"/>
+      <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45740.23958333334</v>
+      </c>
+      <c r="B501" t="n">
+        <v>202</v>
+      </c>
+      <c r="C501" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="D501" t="n">
+        <v>200.1999969482422</v>
+      </c>
+      <c r="E501" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="F501" t="n">
+        <v>20750</v>
+      </c>
+      <c r="G501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H501" t="n">
+        <v>3</v>
+      </c>
+      <c r="I501" t="n">
+        <v>24</v>
+      </c>
+      <c r="J501" t="n">
+        <v>5</v>
+      </c>
+      <c r="K501" t="n">
+        <v>45</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>13</v>
+      </c>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr"/>
+      <c r="P501" t="inlineStr"/>
+      <c r="Q501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45740.28125</v>
+      </c>
+      <c r="B502" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="C502" t="n">
+        <v>209</v>
+      </c>
+      <c r="D502" t="n">
+        <v>200</v>
+      </c>
+      <c r="E502" t="n">
+        <v>208</v>
+      </c>
+      <c r="F502" t="n">
+        <v>12250</v>
+      </c>
+      <c r="G502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H502" t="n">
+        <v>3</v>
+      </c>
+      <c r="I502" t="n">
+        <v>24</v>
+      </c>
+      <c r="J502" t="n">
+        <v>6</v>
+      </c>
+      <c r="K502" t="n">
+        <v>45</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>13</v>
+      </c>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45740.32291666666</v>
+      </c>
+      <c r="B503" t="n">
+        <v>202</v>
+      </c>
+      <c r="C503" t="n">
+        <v>209.8999938964844</v>
+      </c>
+      <c r="D503" t="n">
+        <v>202</v>
+      </c>
+      <c r="E503" t="n">
+        <v>209.8999938964844</v>
+      </c>
+      <c r="F503" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H503" t="n">
+        <v>3</v>
+      </c>
+      <c r="I503" t="n">
+        <v>24</v>
+      </c>
+      <c r="J503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K503" t="n">
+        <v>45</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>13</v>
+      </c>
+      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr"/>
+      <c r="P503" t="inlineStr"/>
+      <c r="Q503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45740.36458333334</v>
+      </c>
+      <c r="B504" t="n">
+        <v>202</v>
+      </c>
+      <c r="C504" t="n">
+        <v>209.3500061035156</v>
+      </c>
+      <c r="D504" t="n">
+        <v>202</v>
+      </c>
+      <c r="E504" t="n">
+        <v>209.0500030517578</v>
+      </c>
+      <c r="F504" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H504" t="n">
+        <v>3</v>
+      </c>
+      <c r="I504" t="n">
+        <v>24</v>
+      </c>
+      <c r="J504" t="n">
+        <v>8</v>
+      </c>
+      <c r="K504" t="n">
+        <v>45</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M504" t="n">
+        <v>13</v>
+      </c>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr"/>
+      <c r="P504" t="inlineStr"/>
+      <c r="Q504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45741.15625</v>
+      </c>
+      <c r="B505" t="n">
+        <v>209</v>
+      </c>
+      <c r="C505" t="n">
+        <v>209</v>
+      </c>
+      <c r="D505" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E505" t="n">
+        <v>201</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H505" t="n">
+        <v>3</v>
+      </c>
+      <c r="I505" t="n">
+        <v>25</v>
+      </c>
+      <c r="J505" t="n">
+        <v>3</v>
+      </c>
+      <c r="K505" t="n">
+        <v>45</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>13</v>
+      </c>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr"/>
+      <c r="P505" t="inlineStr"/>
+      <c r="Q505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45741.19791666666</v>
+      </c>
+      <c r="B506" t="n">
+        <v>199.3500061035156</v>
+      </c>
+      <c r="C506" t="n">
+        <v>203.75</v>
+      </c>
+      <c r="D506" t="n">
+        <v>199.3500061035156</v>
+      </c>
+      <c r="E506" t="n">
+        <v>200</v>
+      </c>
+      <c r="F506" t="n">
+        <v>14750</v>
+      </c>
+      <c r="G506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H506" t="n">
+        <v>3</v>
+      </c>
+      <c r="I506" t="n">
+        <v>25</v>
+      </c>
+      <c r="J506" t="n">
+        <v>4</v>
+      </c>
+      <c r="K506" t="n">
+        <v>45</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>13</v>
+      </c>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr"/>
+      <c r="P506" t="inlineStr"/>
+      <c r="Q506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45741.23958333334</v>
+      </c>
+      <c r="B507" t="n">
+        <v>199.25</v>
+      </c>
+      <c r="C507" t="n">
+        <v>199.75</v>
+      </c>
+      <c r="D507" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E507" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="F507" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H507" t="n">
+        <v>3</v>
+      </c>
+      <c r="I507" t="n">
+        <v>25</v>
+      </c>
+      <c r="J507" t="n">
+        <v>5</v>
+      </c>
+      <c r="K507" t="n">
+        <v>45</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>13</v>
+      </c>
+      <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr"/>
+      <c r="P507" t="inlineStr"/>
+      <c r="Q507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45741.28125</v>
+      </c>
+      <c r="B508" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="C508" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="D508" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E508" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="F508" t="n">
+        <v>750</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H508" t="n">
+        <v>3</v>
+      </c>
+      <c r="I508" t="n">
+        <v>25</v>
+      </c>
+      <c r="J508" t="n">
+        <v>6</v>
+      </c>
+      <c r="K508" t="n">
+        <v>45</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>13</v>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45741.32291666666</v>
+      </c>
+      <c r="B509" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="C509" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="D509" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E509" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="F509" t="n">
+        <v>500</v>
+      </c>
+      <c r="G509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H509" t="n">
+        <v>3</v>
+      </c>
+      <c r="I509" t="n">
+        <v>25</v>
+      </c>
+      <c r="J509" t="n">
+        <v>7</v>
+      </c>
+      <c r="K509" t="n">
+        <v>45</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>13</v>
+      </c>
+      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr"/>
+      <c r="P509" t="inlineStr"/>
+      <c r="Q509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45741.36458333334</v>
+      </c>
+      <c r="B510" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="C510" t="n">
+        <v>199</v>
+      </c>
+      <c r="D510" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E510" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="F510" t="n">
+        <v>15250</v>
+      </c>
+      <c r="G510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H510" t="n">
+        <v>3</v>
+      </c>
+      <c r="I510" t="n">
+        <v>25</v>
+      </c>
+      <c r="J510" t="n">
+        <v>8</v>
+      </c>
+      <c r="K510" t="n">
+        <v>45</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>13</v>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45741.40625</v>
+      </c>
+      <c r="B511" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="C511" t="n">
+        <v>201.8000030517578</v>
+      </c>
+      <c r="D511" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="E511" t="n">
+        <v>198.8000030517578</v>
+      </c>
+      <c r="F511" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G511" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H511" t="n">
+        <v>3</v>
+      </c>
+      <c r="I511" t="n">
+        <v>25</v>
+      </c>
+      <c r="J511" t="n">
+        <v>9</v>
+      </c>
+      <c r="K511" t="n">
+        <v>45</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>13</v>
+      </c>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45742.15625</v>
+      </c>
+      <c r="B512" t="n">
+        <v>199</v>
+      </c>
+      <c r="C512" t="n">
+        <v>199</v>
+      </c>
+      <c r="D512" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E512" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0</v>
+      </c>
+      <c r="G512" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H512" t="n">
+        <v>3</v>
+      </c>
+      <c r="I512" t="n">
+        <v>26</v>
+      </c>
+      <c r="J512" t="n">
+        <v>3</v>
+      </c>
+      <c r="K512" t="n">
+        <v>45</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M512" t="n">
+        <v>13</v>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45742.19791666666</v>
+      </c>
+      <c r="B513" t="n">
+        <v>192.0500030517578</v>
+      </c>
+      <c r="C513" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="D513" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E513" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F513" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G513" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H513" t="n">
+        <v>3</v>
+      </c>
+      <c r="I513" t="n">
+        <v>26</v>
+      </c>
+      <c r="J513" t="n">
+        <v>4</v>
+      </c>
+      <c r="K513" t="n">
+        <v>45</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M513" t="n">
+        <v>13</v>
+      </c>
+      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr"/>
+      <c r="P513" t="inlineStr"/>
+      <c r="Q513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45742.23958333334</v>
+      </c>
+      <c r="B514" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="C514" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="D514" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E514" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F514" t="n">
+        <v>250</v>
+      </c>
+      <c r="G514" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H514" t="n">
+        <v>3</v>
+      </c>
+      <c r="I514" t="n">
+        <v>26</v>
+      </c>
+      <c r="J514" t="n">
+        <v>5</v>
+      </c>
+      <c r="K514" t="n">
+        <v>45</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M514" t="n">
+        <v>13</v>
+      </c>
+      <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="inlineStr"/>
+      <c r="Q514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45742.28125</v>
+      </c>
+      <c r="B515" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="C515" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="D515" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E515" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F515" t="n">
+        <v>500</v>
+      </c>
+      <c r="G515" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H515" t="n">
+        <v>3</v>
+      </c>
+      <c r="I515" t="n">
+        <v>26</v>
+      </c>
+      <c r="J515" t="n">
+        <v>6</v>
+      </c>
+      <c r="K515" t="n">
+        <v>45</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M515" t="n">
+        <v>13</v>
+      </c>
+      <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr"/>
+      <c r="P515" t="inlineStr"/>
+      <c r="Q515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45742.32291666666</v>
+      </c>
+      <c r="B516" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="C516" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="D516" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E516" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F516" t="n">
+        <v>250</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H516" t="n">
+        <v>3</v>
+      </c>
+      <c r="I516" t="n">
+        <v>26</v>
+      </c>
+      <c r="J516" t="n">
+        <v>7</v>
+      </c>
+      <c r="K516" t="n">
+        <v>45</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>13</v>
+      </c>
+      <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr"/>
+      <c r="P516" t="inlineStr"/>
+      <c r="Q516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45742.36458333334</v>
+      </c>
+      <c r="B517" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="C517" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="D517" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E517" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F517" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H517" t="n">
+        <v>3</v>
+      </c>
+      <c r="I517" t="n">
+        <v>26</v>
+      </c>
+      <c r="J517" t="n">
+        <v>8</v>
+      </c>
+      <c r="K517" t="n">
+        <v>45</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>13</v>
+      </c>
+      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr"/>
+      <c r="P517" t="inlineStr"/>
+      <c r="Q517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45742.40625</v>
+      </c>
+      <c r="B518" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="C518" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="D518" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="E518" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="F518" t="n">
+        <v>250</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H518" t="n">
+        <v>3</v>
+      </c>
+      <c r="I518" t="n">
+        <v>26</v>
+      </c>
+      <c r="J518" t="n">
+        <v>9</v>
+      </c>
+      <c r="K518" t="n">
+        <v>45</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>13</v>
+      </c>
+      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr"/>
+      <c r="P518" t="inlineStr"/>
+      <c r="Q518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45743.15625</v>
+      </c>
+      <c r="B519" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="C519" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="D519" t="n">
+        <v>183.0500030517578</v>
+      </c>
+      <c r="E519" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H519" t="n">
+        <v>3</v>
+      </c>
+      <c r="I519" t="n">
+        <v>27</v>
+      </c>
+      <c r="J519" t="n">
+        <v>3</v>
+      </c>
+      <c r="K519" t="n">
+        <v>45</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>13</v>
+      </c>
+      <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="inlineStr"/>
+      <c r="Q519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45743.19791666666</v>
+      </c>
+      <c r="B520" t="n">
+        <v>185</v>
+      </c>
+      <c r="C520" t="n">
+        <v>185</v>
+      </c>
+      <c r="D520" t="n">
+        <v>182.8000030517578</v>
+      </c>
+      <c r="E520" t="n">
+        <v>183</v>
+      </c>
+      <c r="F520" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H520" t="n">
+        <v>3</v>
+      </c>
+      <c r="I520" t="n">
+        <v>27</v>
+      </c>
+      <c r="J520" t="n">
+        <v>4</v>
+      </c>
+      <c r="K520" t="n">
+        <v>45</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M520" t="n">
+        <v>13</v>
+      </c>
+      <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr"/>
+      <c r="Q520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45743.23958333334</v>
+      </c>
+      <c r="B521" t="n">
+        <v>183.8999938964844</v>
+      </c>
+      <c r="C521" t="n">
+        <v>185.4499969482422</v>
+      </c>
+      <c r="D521" t="n">
+        <v>180</v>
+      </c>
+      <c r="E521" t="n">
+        <v>180</v>
+      </c>
+      <c r="F521" t="n">
+        <v>45750</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H521" t="n">
+        <v>3</v>
+      </c>
+      <c r="I521" t="n">
+        <v>27</v>
+      </c>
+      <c r="J521" t="n">
+        <v>5</v>
+      </c>
+      <c r="K521" t="n">
+        <v>45</v>
+      </c>
+      <c r="L521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M521" t="n">
+        <v>13</v>
+      </c>
+      <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="inlineStr"/>
+      <c r="Q521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45743.28125</v>
+      </c>
+      <c r="B522" t="n">
+        <v>180.0500030517578</v>
+      </c>
+      <c r="C522" t="n">
+        <v>180.0500030517578</v>
+      </c>
+      <c r="D522" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E522" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="F522" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H522" t="n">
+        <v>3</v>
+      </c>
+      <c r="I522" t="n">
+        <v>27</v>
+      </c>
+      <c r="J522" t="n">
+        <v>6</v>
+      </c>
+      <c r="K522" t="n">
+        <v>45</v>
+      </c>
+      <c r="L522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M522" t="n">
+        <v>13</v>
+      </c>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr"/>
+      <c r="Q522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45743.32291666666</v>
+      </c>
+      <c r="B523" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>180</v>
+      </c>
+      <c r="D523" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E523" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="F523" t="n">
+        <v>9250</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H523" t="n">
+        <v>3</v>
+      </c>
+      <c r="I523" t="n">
+        <v>27</v>
+      </c>
+      <c r="J523" t="n">
+        <v>7</v>
+      </c>
+      <c r="K523" t="n">
+        <v>45</v>
+      </c>
+      <c r="L523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M523" t="n">
+        <v>13</v>
+      </c>
+      <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr"/>
+      <c r="P523" t="inlineStr"/>
+      <c r="Q523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45743.36458333334</v>
+      </c>
+      <c r="B524" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="C524" t="n">
+        <v>180</v>
+      </c>
+      <c r="D524" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E524" t="n">
+        <v>180</v>
+      </c>
+      <c r="F524" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H524" t="n">
+        <v>3</v>
+      </c>
+      <c r="I524" t="n">
+        <v>27</v>
+      </c>
+      <c r="J524" t="n">
+        <v>8</v>
+      </c>
+      <c r="K524" t="n">
+        <v>45</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>13</v>
+      </c>
+      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="inlineStr"/>
+      <c r="Q524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45743.40625</v>
+      </c>
+      <c r="B525" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="C525" t="n">
+        <v>180</v>
+      </c>
+      <c r="D525" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E525" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="F525" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H525" t="n">
+        <v>3</v>
+      </c>
+      <c r="I525" t="n">
+        <v>27</v>
+      </c>
+      <c r="J525" t="n">
+        <v>9</v>
+      </c>
+      <c r="K525" t="n">
+        <v>45</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>13</v>
+      </c>
+      <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr"/>
+      <c r="P525" t="inlineStr"/>
+      <c r="Q525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45744.15625</v>
+      </c>
+      <c r="B526" t="n">
+        <v>179.6000061035156</v>
+      </c>
+      <c r="C526" t="n">
+        <v>180</v>
+      </c>
+      <c r="D526" t="n">
+        <v>172</v>
+      </c>
+      <c r="E526" t="n">
+        <v>179.9499969482422</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H526" t="n">
+        <v>3</v>
+      </c>
+      <c r="I526" t="n">
+        <v>28</v>
+      </c>
+      <c r="J526" t="n">
+        <v>3</v>
+      </c>
+      <c r="K526" t="n">
+        <v>45</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>13</v>
+      </c>
+      <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr"/>
+      <c r="P526" t="inlineStr"/>
+      <c r="Q526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45744.19791666666</v>
+      </c>
+      <c r="B527" t="n">
+        <v>174</v>
+      </c>
+      <c r="C527" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="D527" t="n">
+        <v>172.0500030517578</v>
+      </c>
+      <c r="E527" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="F527" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H527" t="n">
+        <v>3</v>
+      </c>
+      <c r="I527" t="n">
+        <v>28</v>
+      </c>
+      <c r="J527" t="n">
+        <v>4</v>
+      </c>
+      <c r="K527" t="n">
+        <v>45</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>13</v>
+      </c>
+      <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr"/>
+      <c r="P527" t="inlineStr"/>
+      <c r="Q527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45744.23958333334</v>
+      </c>
+      <c r="B528" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="C528" t="n">
+        <v>176.0500030517578</v>
+      </c>
+      <c r="D528" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="E528" t="n">
+        <v>176.0500030517578</v>
+      </c>
+      <c r="F528" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H528" t="n">
+        <v>3</v>
+      </c>
+      <c r="I528" t="n">
+        <v>28</v>
+      </c>
+      <c r="J528" t="n">
+        <v>5</v>
+      </c>
+      <c r="K528" t="n">
+        <v>45</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>13</v>
+      </c>
+      <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="inlineStr"/>
+      <c r="Q528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45744.28125</v>
+      </c>
+      <c r="B529" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C529" t="n">
+        <v>178</v>
+      </c>
+      <c r="D529" t="n">
+        <v>176</v>
+      </c>
+      <c r="E529" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="F529" t="n">
+        <v>4750</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H529" t="n">
+        <v>3</v>
+      </c>
+      <c r="I529" t="n">
+        <v>28</v>
+      </c>
+      <c r="J529" t="n">
+        <v>6</v>
+      </c>
+      <c r="K529" t="n">
+        <v>45</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>13</v>
+      </c>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr"/>
+      <c r="Q529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45744.32291666666</v>
+      </c>
+      <c r="B530" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C530" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="D530" t="n">
+        <v>176</v>
+      </c>
+      <c r="E530" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="F530" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H530" t="n">
+        <v>3</v>
+      </c>
+      <c r="I530" t="n">
+        <v>28</v>
+      </c>
+      <c r="J530" t="n">
+        <v>7</v>
+      </c>
+      <c r="K530" t="n">
+        <v>45</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>13</v>
+      </c>
+      <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr"/>
+      <c r="P530" t="inlineStr"/>
+      <c r="Q530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45744.36458333334</v>
+      </c>
+      <c r="B531" t="n">
+        <v>176</v>
+      </c>
+      <c r="C531" t="n">
+        <v>176.75</v>
+      </c>
+      <c r="D531" t="n">
+        <v>170.6999969482422</v>
+      </c>
+      <c r="E531" t="n">
+        <v>171</v>
+      </c>
+      <c r="F531" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H531" t="n">
+        <v>3</v>
+      </c>
+      <c r="I531" t="n">
+        <v>28</v>
+      </c>
+      <c r="J531" t="n">
+        <v>8</v>
+      </c>
+      <c r="K531" t="n">
+        <v>45</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>13</v>
+      </c>
+      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr"/>
+      <c r="P531" t="inlineStr"/>
+      <c r="Q531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45744.40625</v>
+      </c>
+      <c r="B532" t="n">
+        <v>170.8000030517578</v>
+      </c>
+      <c r="C532" t="n">
+        <v>171</v>
+      </c>
+      <c r="D532" t="n">
+        <v>170.8000030517578</v>
+      </c>
+      <c r="E532" t="n">
+        <v>170.8999938964844</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H532" t="n">
+        <v>3</v>
+      </c>
+      <c r="I532" t="n">
+        <v>28</v>
+      </c>
+      <c r="J532" t="n">
+        <v>9</v>
+      </c>
+      <c r="K532" t="n">
+        <v>45</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>13</v>
+      </c>
+      <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr"/>
+      <c r="P532" t="inlineStr"/>
+      <c r="Q532" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INFLAME.BO.xlsx
+++ b/stock_historical_data/60m/INFLAME.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q532"/>
+  <dimension ref="A1:Q594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25857,6 +25857,2796 @@
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="inlineStr"/>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45748.15625</v>
+      </c>
+      <c r="B533" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C533" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D533" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="E533" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H533" t="n">
+        <v>4</v>
+      </c>
+      <c r="I533" t="n">
+        <v>1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>3</v>
+      </c>
+      <c r="K533" t="n">
+        <v>45</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>14</v>
+      </c>
+      <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr"/>
+      <c r="P533" t="inlineStr"/>
+      <c r="Q533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45748.19791666666</v>
+      </c>
+      <c r="B534" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C534" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D534" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="E534" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="F534" t="n">
+        <v>500</v>
+      </c>
+      <c r="G534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H534" t="n">
+        <v>4</v>
+      </c>
+      <c r="I534" t="n">
+        <v>1</v>
+      </c>
+      <c r="J534" t="n">
+        <v>4</v>
+      </c>
+      <c r="K534" t="n">
+        <v>45</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>14</v>
+      </c>
+      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr"/>
+      <c r="P534" t="inlineStr"/>
+      <c r="Q534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45748.23958333334</v>
+      </c>
+      <c r="B535" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C535" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D535" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="E535" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="F535" t="n">
+        <v>250</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H535" t="n">
+        <v>4</v>
+      </c>
+      <c r="I535" t="n">
+        <v>1</v>
+      </c>
+      <c r="J535" t="n">
+        <v>5</v>
+      </c>
+      <c r="K535" t="n">
+        <v>45</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>14</v>
+      </c>
+      <c r="N535" t="inlineStr"/>
+      <c r="O535" t="inlineStr"/>
+      <c r="P535" t="inlineStr"/>
+      <c r="Q535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45748.36458333334</v>
+      </c>
+      <c r="B536" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="C536" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D536" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="E536" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="F536" t="n">
+        <v>250</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H536" t="n">
+        <v>4</v>
+      </c>
+      <c r="I536" t="n">
+        <v>1</v>
+      </c>
+      <c r="J536" t="n">
+        <v>8</v>
+      </c>
+      <c r="K536" t="n">
+        <v>45</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>14</v>
+      </c>
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45749.15625</v>
+      </c>
+      <c r="B537" t="n">
+        <v>186</v>
+      </c>
+      <c r="C537" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="D537" t="n">
+        <v>186</v>
+      </c>
+      <c r="E537" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H537" t="n">
+        <v>4</v>
+      </c>
+      <c r="I537" t="n">
+        <v>2</v>
+      </c>
+      <c r="J537" t="n">
+        <v>3</v>
+      </c>
+      <c r="K537" t="n">
+        <v>45</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>14</v>
+      </c>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr"/>
+      <c r="Q537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45749.19791666666</v>
+      </c>
+      <c r="B538" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="C538" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="D538" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="E538" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="F538" t="n">
+        <v>250</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H538" t="n">
+        <v>4</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2</v>
+      </c>
+      <c r="J538" t="n">
+        <v>4</v>
+      </c>
+      <c r="K538" t="n">
+        <v>45</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>14</v>
+      </c>
+      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="inlineStr"/>
+      <c r="Q538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45749.23958333334</v>
+      </c>
+      <c r="B539" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="C539" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="D539" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="E539" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="F539" t="n">
+        <v>250</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H539" t="n">
+        <v>4</v>
+      </c>
+      <c r="I539" t="n">
+        <v>2</v>
+      </c>
+      <c r="J539" t="n">
+        <v>5</v>
+      </c>
+      <c r="K539" t="n">
+        <v>45</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>14</v>
+      </c>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="inlineStr"/>
+      <c r="Q539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45750.15625</v>
+      </c>
+      <c r="B540" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="C540" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="D540" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="E540" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H540" t="n">
+        <v>4</v>
+      </c>
+      <c r="I540" t="n">
+        <v>3</v>
+      </c>
+      <c r="J540" t="n">
+        <v>3</v>
+      </c>
+      <c r="K540" t="n">
+        <v>45</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>14</v>
+      </c>
+      <c r="N540" t="inlineStr"/>
+      <c r="O540" t="inlineStr"/>
+      <c r="P540" t="inlineStr"/>
+      <c r="Q540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45750.19791666666</v>
+      </c>
+      <c r="B541" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="C541" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="D541" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="E541" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="F541" t="n">
+        <v>250</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H541" t="n">
+        <v>4</v>
+      </c>
+      <c r="I541" t="n">
+        <v>3</v>
+      </c>
+      <c r="J541" t="n">
+        <v>4</v>
+      </c>
+      <c r="K541" t="n">
+        <v>45</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>14</v>
+      </c>
+      <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="inlineStr"/>
+      <c r="Q541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45750.36458333334</v>
+      </c>
+      <c r="B542" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="C542" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="D542" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="E542" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="F542" t="n">
+        <v>250</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H542" t="n">
+        <v>4</v>
+      </c>
+      <c r="I542" t="n">
+        <v>3</v>
+      </c>
+      <c r="J542" t="n">
+        <v>8</v>
+      </c>
+      <c r="K542" t="n">
+        <v>45</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>14</v>
+      </c>
+      <c r="N542" t="inlineStr"/>
+      <c r="O542" t="inlineStr"/>
+      <c r="P542" t="inlineStr"/>
+      <c r="Q542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45751.15625</v>
+      </c>
+      <c r="B543" t="n">
+        <v>207.6000061035156</v>
+      </c>
+      <c r="C543" t="n">
+        <v>207.6000061035156</v>
+      </c>
+      <c r="D543" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="E543" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="F543" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H543" t="n">
+        <v>4</v>
+      </c>
+      <c r="I543" t="n">
+        <v>4</v>
+      </c>
+      <c r="J543" t="n">
+        <v>3</v>
+      </c>
+      <c r="K543" t="n">
+        <v>45</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>14</v>
+      </c>
+      <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr"/>
+      <c r="P543" t="inlineStr"/>
+      <c r="Q543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45751.19791666666</v>
+      </c>
+      <c r="B544" t="n">
+        <v>201.3000030517578</v>
+      </c>
+      <c r="C544" t="n">
+        <v>201.3000030517578</v>
+      </c>
+      <c r="D544" t="n">
+        <v>200.9499969482422</v>
+      </c>
+      <c r="E544" t="n">
+        <v>201</v>
+      </c>
+      <c r="F544" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H544" t="n">
+        <v>4</v>
+      </c>
+      <c r="I544" t="n">
+        <v>4</v>
+      </c>
+      <c r="J544" t="n">
+        <v>4</v>
+      </c>
+      <c r="K544" t="n">
+        <v>45</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>14</v>
+      </c>
+      <c r="N544" t="inlineStr"/>
+      <c r="O544" t="inlineStr"/>
+      <c r="P544" t="inlineStr"/>
+      <c r="Q544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45751.23958333334</v>
+      </c>
+      <c r="B545" t="n">
+        <v>201</v>
+      </c>
+      <c r="C545" t="n">
+        <v>201</v>
+      </c>
+      <c r="D545" t="n">
+        <v>201</v>
+      </c>
+      <c r="E545" t="n">
+        <v>201</v>
+      </c>
+      <c r="F545" t="n">
+        <v>250</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H545" t="n">
+        <v>4</v>
+      </c>
+      <c r="I545" t="n">
+        <v>4</v>
+      </c>
+      <c r="J545" t="n">
+        <v>5</v>
+      </c>
+      <c r="K545" t="n">
+        <v>45</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>14</v>
+      </c>
+      <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr"/>
+      <c r="P545" t="inlineStr"/>
+      <c r="Q545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45751.28125</v>
+      </c>
+      <c r="B546" t="n">
+        <v>203.3999938964844</v>
+      </c>
+      <c r="C546" t="n">
+        <v>205.9499969482422</v>
+      </c>
+      <c r="D546" t="n">
+        <v>201</v>
+      </c>
+      <c r="E546" t="n">
+        <v>205.9499969482422</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H546" t="n">
+        <v>4</v>
+      </c>
+      <c r="I546" t="n">
+        <v>4</v>
+      </c>
+      <c r="J546" t="n">
+        <v>6</v>
+      </c>
+      <c r="K546" t="n">
+        <v>45</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>14</v>
+      </c>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45751.32291666666</v>
+      </c>
+      <c r="B547" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="C547" t="n">
+        <v>205.9499969482422</v>
+      </c>
+      <c r="D547" t="n">
+        <v>198.3000030517578</v>
+      </c>
+      <c r="E547" t="n">
+        <v>198.3000030517578</v>
+      </c>
+      <c r="F547" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H547" t="n">
+        <v>4</v>
+      </c>
+      <c r="I547" t="n">
+        <v>4</v>
+      </c>
+      <c r="J547" t="n">
+        <v>7</v>
+      </c>
+      <c r="K547" t="n">
+        <v>45</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>14</v>
+      </c>
+      <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="inlineStr"/>
+      <c r="Q547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45751.40625</v>
+      </c>
+      <c r="B548" t="n">
+        <v>199</v>
+      </c>
+      <c r="C548" t="n">
+        <v>199</v>
+      </c>
+      <c r="D548" t="n">
+        <v>199</v>
+      </c>
+      <c r="E548" t="n">
+        <v>199</v>
+      </c>
+      <c r="F548" t="n">
+        <v>250</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H548" t="n">
+        <v>4</v>
+      </c>
+      <c r="I548" t="n">
+        <v>4</v>
+      </c>
+      <c r="J548" t="n">
+        <v>9</v>
+      </c>
+      <c r="K548" t="n">
+        <v>45</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>14</v>
+      </c>
+      <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="inlineStr"/>
+      <c r="Q548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45754.15625</v>
+      </c>
+      <c r="B549" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="C549" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="D549" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="E549" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H549" t="n">
+        <v>4</v>
+      </c>
+      <c r="I549" t="n">
+        <v>7</v>
+      </c>
+      <c r="J549" t="n">
+        <v>3</v>
+      </c>
+      <c r="K549" t="n">
+        <v>45</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>15</v>
+      </c>
+      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr"/>
+      <c r="P549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45754.19791666666</v>
+      </c>
+      <c r="B550" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="C550" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="D550" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="E550" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H550" t="n">
+        <v>4</v>
+      </c>
+      <c r="I550" t="n">
+        <v>7</v>
+      </c>
+      <c r="J550" t="n">
+        <v>4</v>
+      </c>
+      <c r="K550" t="n">
+        <v>45</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>15</v>
+      </c>
+      <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45755.15625</v>
+      </c>
+      <c r="B551" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="C551" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="D551" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="E551" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H551" t="n">
+        <v>4</v>
+      </c>
+      <c r="I551" t="n">
+        <v>8</v>
+      </c>
+      <c r="J551" t="n">
+        <v>3</v>
+      </c>
+      <c r="K551" t="n">
+        <v>45</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>15</v>
+      </c>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45755.28125</v>
+      </c>
+      <c r="B552" t="n">
+        <v>183</v>
+      </c>
+      <c r="C552" t="n">
+        <v>183</v>
+      </c>
+      <c r="D552" t="n">
+        <v>183</v>
+      </c>
+      <c r="E552" t="n">
+        <v>183</v>
+      </c>
+      <c r="F552" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H552" t="n">
+        <v>4</v>
+      </c>
+      <c r="I552" t="n">
+        <v>8</v>
+      </c>
+      <c r="J552" t="n">
+        <v>6</v>
+      </c>
+      <c r="K552" t="n">
+        <v>45</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>15</v>
+      </c>
+      <c r="N552" t="inlineStr"/>
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45755.32291666666</v>
+      </c>
+      <c r="B553" t="n">
+        <v>185</v>
+      </c>
+      <c r="C553" t="n">
+        <v>185.9499969482422</v>
+      </c>
+      <c r="D553" t="n">
+        <v>179.6000061035156</v>
+      </c>
+      <c r="E553" t="n">
+        <v>185.9499969482422</v>
+      </c>
+      <c r="F553" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H553" t="n">
+        <v>4</v>
+      </c>
+      <c r="I553" t="n">
+        <v>8</v>
+      </c>
+      <c r="J553" t="n">
+        <v>7</v>
+      </c>
+      <c r="K553" t="n">
+        <v>45</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>15</v>
+      </c>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45755.36458333334</v>
+      </c>
+      <c r="B554" t="n">
+        <v>185.6000061035156</v>
+      </c>
+      <c r="C554" t="n">
+        <v>185.9499969482422</v>
+      </c>
+      <c r="D554" t="n">
+        <v>185.6000061035156</v>
+      </c>
+      <c r="E554" t="n">
+        <v>185.9499969482422</v>
+      </c>
+      <c r="F554" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H554" t="n">
+        <v>4</v>
+      </c>
+      <c r="I554" t="n">
+        <v>8</v>
+      </c>
+      <c r="J554" t="n">
+        <v>8</v>
+      </c>
+      <c r="K554" t="n">
+        <v>45</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M554" t="n">
+        <v>15</v>
+      </c>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45755.40625</v>
+      </c>
+      <c r="B555" t="n">
+        <v>180.4499969482422</v>
+      </c>
+      <c r="C555" t="n">
+        <v>180.4499969482422</v>
+      </c>
+      <c r="D555" t="n">
+        <v>180.4499969482422</v>
+      </c>
+      <c r="E555" t="n">
+        <v>180.4499969482422</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H555" t="n">
+        <v>4</v>
+      </c>
+      <c r="I555" t="n">
+        <v>8</v>
+      </c>
+      <c r="J555" t="n">
+        <v>9</v>
+      </c>
+      <c r="K555" t="n">
+        <v>45</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>15</v>
+      </c>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr"/>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45756.15625</v>
+      </c>
+      <c r="B556" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="C556" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="D556" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="E556" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H556" t="n">
+        <v>4</v>
+      </c>
+      <c r="I556" t="n">
+        <v>9</v>
+      </c>
+      <c r="J556" t="n">
+        <v>3</v>
+      </c>
+      <c r="K556" t="n">
+        <v>45</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>15</v>
+      </c>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45756.19791666666</v>
+      </c>
+      <c r="B557" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="C557" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="D557" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="E557" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="F557" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H557" t="n">
+        <v>4</v>
+      </c>
+      <c r="I557" t="n">
+        <v>9</v>
+      </c>
+      <c r="J557" t="n">
+        <v>4</v>
+      </c>
+      <c r="K557" t="n">
+        <v>45</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>15</v>
+      </c>
+      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr"/>
+      <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45756.23958333334</v>
+      </c>
+      <c r="B558" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="C558" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="D558" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="E558" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="F558" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H558" t="n">
+        <v>4</v>
+      </c>
+      <c r="I558" t="n">
+        <v>9</v>
+      </c>
+      <c r="J558" t="n">
+        <v>5</v>
+      </c>
+      <c r="K558" t="n">
+        <v>45</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>15</v>
+      </c>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45756.28125</v>
+      </c>
+      <c r="B559" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="C559" t="n">
+        <v>176</v>
+      </c>
+      <c r="D559" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="E559" t="n">
+        <v>175</v>
+      </c>
+      <c r="F559" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H559" t="n">
+        <v>4</v>
+      </c>
+      <c r="I559" t="n">
+        <v>9</v>
+      </c>
+      <c r="J559" t="n">
+        <v>6</v>
+      </c>
+      <c r="K559" t="n">
+        <v>45</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>15</v>
+      </c>
+      <c r="N559" t="inlineStr"/>
+      <c r="O559" t="inlineStr"/>
+      <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45756.36458333334</v>
+      </c>
+      <c r="B560" t="n">
+        <v>180</v>
+      </c>
+      <c r="C560" t="n">
+        <v>186</v>
+      </c>
+      <c r="D560" t="n">
+        <v>180</v>
+      </c>
+      <c r="E560" t="n">
+        <v>186</v>
+      </c>
+      <c r="F560" t="n">
+        <v>500</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H560" t="n">
+        <v>4</v>
+      </c>
+      <c r="I560" t="n">
+        <v>9</v>
+      </c>
+      <c r="J560" t="n">
+        <v>8</v>
+      </c>
+      <c r="K560" t="n">
+        <v>45</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>15</v>
+      </c>
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr"/>
+      <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45758.23958333334</v>
+      </c>
+      <c r="B561" t="n">
+        <v>188</v>
+      </c>
+      <c r="C561" t="n">
+        <v>188</v>
+      </c>
+      <c r="D561" t="n">
+        <v>188</v>
+      </c>
+      <c r="E561" t="n">
+        <v>188</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H561" t="n">
+        <v>4</v>
+      </c>
+      <c r="I561" t="n">
+        <v>11</v>
+      </c>
+      <c r="J561" t="n">
+        <v>5</v>
+      </c>
+      <c r="K561" t="n">
+        <v>45</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>15</v>
+      </c>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45758.28125</v>
+      </c>
+      <c r="B562" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="C562" t="n">
+        <v>194.9499969482422</v>
+      </c>
+      <c r="D562" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="E562" t="n">
+        <v>194.9499969482422</v>
+      </c>
+      <c r="F562" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H562" t="n">
+        <v>4</v>
+      </c>
+      <c r="I562" t="n">
+        <v>11</v>
+      </c>
+      <c r="J562" t="n">
+        <v>6</v>
+      </c>
+      <c r="K562" t="n">
+        <v>45</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>15</v>
+      </c>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45758.36458333334</v>
+      </c>
+      <c r="B563" t="n">
+        <v>194</v>
+      </c>
+      <c r="C563" t="n">
+        <v>194</v>
+      </c>
+      <c r="D563" t="n">
+        <v>194</v>
+      </c>
+      <c r="E563" t="n">
+        <v>194</v>
+      </c>
+      <c r="F563" t="n">
+        <v>250</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H563" t="n">
+        <v>4</v>
+      </c>
+      <c r="I563" t="n">
+        <v>11</v>
+      </c>
+      <c r="J563" t="n">
+        <v>8</v>
+      </c>
+      <c r="K563" t="n">
+        <v>45</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M563" t="n">
+        <v>15</v>
+      </c>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr"/>
+      <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45758.40625</v>
+      </c>
+      <c r="B564" t="n">
+        <v>194.9499969482422</v>
+      </c>
+      <c r="C564" t="n">
+        <v>194.9499969482422</v>
+      </c>
+      <c r="D564" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="E564" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="F564" t="n">
+        <v>250</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H564" t="n">
+        <v>4</v>
+      </c>
+      <c r="I564" t="n">
+        <v>11</v>
+      </c>
+      <c r="J564" t="n">
+        <v>9</v>
+      </c>
+      <c r="K564" t="n">
+        <v>45</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>15</v>
+      </c>
+      <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45762.15625</v>
+      </c>
+      <c r="B565" t="n">
+        <v>204.1499938964844</v>
+      </c>
+      <c r="C565" t="n">
+        <v>204.1999969482422</v>
+      </c>
+      <c r="D565" t="n">
+        <v>203.75</v>
+      </c>
+      <c r="E565" t="n">
+        <v>203.9499969482422</v>
+      </c>
+      <c r="F565" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H565" t="n">
+        <v>4</v>
+      </c>
+      <c r="I565" t="n">
+        <v>15</v>
+      </c>
+      <c r="J565" t="n">
+        <v>3</v>
+      </c>
+      <c r="K565" t="n">
+        <v>45</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M565" t="n">
+        <v>16</v>
+      </c>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45762.19791666666</v>
+      </c>
+      <c r="B566" t="n">
+        <v>203.9499969482422</v>
+      </c>
+      <c r="C566" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="D566" t="n">
+        <v>203.9499969482422</v>
+      </c>
+      <c r="E566" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="F566" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H566" t="n">
+        <v>4</v>
+      </c>
+      <c r="I566" t="n">
+        <v>15</v>
+      </c>
+      <c r="J566" t="n">
+        <v>4</v>
+      </c>
+      <c r="K566" t="n">
+        <v>45</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>16</v>
+      </c>
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
+      <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45762.23958333334</v>
+      </c>
+      <c r="B567" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="C567" t="n">
+        <v>204.1000061035156</v>
+      </c>
+      <c r="D567" t="n">
+        <v>204</v>
+      </c>
+      <c r="E567" t="n">
+        <v>204</v>
+      </c>
+      <c r="F567" t="n">
+        <v>750</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H567" t="n">
+        <v>4</v>
+      </c>
+      <c r="I567" t="n">
+        <v>15</v>
+      </c>
+      <c r="J567" t="n">
+        <v>5</v>
+      </c>
+      <c r="K567" t="n">
+        <v>45</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>16</v>
+      </c>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="inlineStr"/>
+      <c r="Q567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45762.28125</v>
+      </c>
+      <c r="B568" t="n">
+        <v>199</v>
+      </c>
+      <c r="C568" t="n">
+        <v>204</v>
+      </c>
+      <c r="D568" t="n">
+        <v>199</v>
+      </c>
+      <c r="E568" t="n">
+        <v>204</v>
+      </c>
+      <c r="F568" t="n">
+        <v>750</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H568" t="n">
+        <v>4</v>
+      </c>
+      <c r="I568" t="n">
+        <v>15</v>
+      </c>
+      <c r="J568" t="n">
+        <v>6</v>
+      </c>
+      <c r="K568" t="n">
+        <v>45</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>16</v>
+      </c>
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
+      <c r="P568" t="inlineStr"/>
+      <c r="Q568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45763.15625</v>
+      </c>
+      <c r="B569" t="n">
+        <v>214.1499938964844</v>
+      </c>
+      <c r="C569" t="n">
+        <v>214.1499938964844</v>
+      </c>
+      <c r="D569" t="n">
+        <v>209</v>
+      </c>
+      <c r="E569" t="n">
+        <v>213.4499969482422</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H569" t="n">
+        <v>4</v>
+      </c>
+      <c r="I569" t="n">
+        <v>16</v>
+      </c>
+      <c r="J569" t="n">
+        <v>3</v>
+      </c>
+      <c r="K569" t="n">
+        <v>45</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>16</v>
+      </c>
+      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
+      <c r="P569" t="inlineStr"/>
+      <c r="Q569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45763.19791666666</v>
+      </c>
+      <c r="B570" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C570" t="n">
+        <v>214.1499938964844</v>
+      </c>
+      <c r="D570" t="n">
+        <v>213.4499969482422</v>
+      </c>
+      <c r="E570" t="n">
+        <v>214.1499938964844</v>
+      </c>
+      <c r="F570" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H570" t="n">
+        <v>4</v>
+      </c>
+      <c r="I570" t="n">
+        <v>16</v>
+      </c>
+      <c r="J570" t="n">
+        <v>4</v>
+      </c>
+      <c r="K570" t="n">
+        <v>45</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>16</v>
+      </c>
+      <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr"/>
+      <c r="P570" t="inlineStr"/>
+      <c r="Q570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45763.23958333334</v>
+      </c>
+      <c r="B571" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="C571" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="D571" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="E571" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="F571" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H571" t="n">
+        <v>4</v>
+      </c>
+      <c r="I571" t="n">
+        <v>16</v>
+      </c>
+      <c r="J571" t="n">
+        <v>5</v>
+      </c>
+      <c r="K571" t="n">
+        <v>45</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>16</v>
+      </c>
+      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
+      <c r="P571" t="inlineStr"/>
+      <c r="Q571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45763.28125</v>
+      </c>
+      <c r="B572" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="C572" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="D572" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="E572" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="F572" t="n">
+        <v>250</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H572" t="n">
+        <v>4</v>
+      </c>
+      <c r="I572" t="n">
+        <v>16</v>
+      </c>
+      <c r="J572" t="n">
+        <v>6</v>
+      </c>
+      <c r="K572" t="n">
+        <v>45</v>
+      </c>
+      <c r="L572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M572" t="n">
+        <v>16</v>
+      </c>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
+      <c r="P572" t="inlineStr"/>
+      <c r="Q572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45763.32291666666</v>
+      </c>
+      <c r="B573" t="n">
+        <v>214</v>
+      </c>
+      <c r="C573" t="n">
+        <v>214</v>
+      </c>
+      <c r="D573" t="n">
+        <v>214</v>
+      </c>
+      <c r="E573" t="n">
+        <v>214</v>
+      </c>
+      <c r="F573" t="n">
+        <v>500</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H573" t="n">
+        <v>4</v>
+      </c>
+      <c r="I573" t="n">
+        <v>16</v>
+      </c>
+      <c r="J573" t="n">
+        <v>7</v>
+      </c>
+      <c r="K573" t="n">
+        <v>45</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>16</v>
+      </c>
+      <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
+      <c r="P573" t="inlineStr"/>
+      <c r="Q573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45763.36458333334</v>
+      </c>
+      <c r="B574" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="C574" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="D574" t="n">
+        <v>214</v>
+      </c>
+      <c r="E574" t="n">
+        <v>214.1499938964844</v>
+      </c>
+      <c r="F574" t="n">
+        <v>750</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H574" t="n">
+        <v>4</v>
+      </c>
+      <c r="I574" t="n">
+        <v>16</v>
+      </c>
+      <c r="J574" t="n">
+        <v>8</v>
+      </c>
+      <c r="K574" t="n">
+        <v>45</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>16</v>
+      </c>
+      <c r="N574" t="inlineStr"/>
+      <c r="O574" t="inlineStr"/>
+      <c r="P574" t="inlineStr"/>
+      <c r="Q574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45764.15625</v>
+      </c>
+      <c r="B575" t="n">
+        <v>214</v>
+      </c>
+      <c r="C575" t="n">
+        <v>214</v>
+      </c>
+      <c r="D575" t="n">
+        <v>203.4499969482422</v>
+      </c>
+      <c r="E575" t="n">
+        <v>205</v>
+      </c>
+      <c r="F575" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H575" t="n">
+        <v>4</v>
+      </c>
+      <c r="I575" t="n">
+        <v>17</v>
+      </c>
+      <c r="J575" t="n">
+        <v>3</v>
+      </c>
+      <c r="K575" t="n">
+        <v>45</v>
+      </c>
+      <c r="L575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M575" t="n">
+        <v>16</v>
+      </c>
+      <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr"/>
+      <c r="P575" t="inlineStr"/>
+      <c r="Q575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45764.19791666666</v>
+      </c>
+      <c r="B576" t="n">
+        <v>204</v>
+      </c>
+      <c r="C576" t="n">
+        <v>204</v>
+      </c>
+      <c r="D576" t="n">
+        <v>204</v>
+      </c>
+      <c r="E576" t="n">
+        <v>204</v>
+      </c>
+      <c r="F576" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H576" t="n">
+        <v>4</v>
+      </c>
+      <c r="I576" t="n">
+        <v>17</v>
+      </c>
+      <c r="J576" t="n">
+        <v>4</v>
+      </c>
+      <c r="K576" t="n">
+        <v>45</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>16</v>
+      </c>
+      <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="inlineStr"/>
+      <c r="Q576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45764.28125</v>
+      </c>
+      <c r="B577" t="n">
+        <v>213.75</v>
+      </c>
+      <c r="C577" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="D577" t="n">
+        <v>213.75</v>
+      </c>
+      <c r="E577" t="n">
+        <v>213.8000030517578</v>
+      </c>
+      <c r="F577" t="n">
+        <v>750</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H577" t="n">
+        <v>4</v>
+      </c>
+      <c r="I577" t="n">
+        <v>17</v>
+      </c>
+      <c r="J577" t="n">
+        <v>6</v>
+      </c>
+      <c r="K577" t="n">
+        <v>45</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>16</v>
+      </c>
+      <c r="N577" t="inlineStr"/>
+      <c r="O577" t="inlineStr"/>
+      <c r="P577" t="inlineStr"/>
+      <c r="Q577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45764.32291666666</v>
+      </c>
+      <c r="B578" t="n">
+        <v>214</v>
+      </c>
+      <c r="C578" t="n">
+        <v>214</v>
+      </c>
+      <c r="D578" t="n">
+        <v>214</v>
+      </c>
+      <c r="E578" t="n">
+        <v>214</v>
+      </c>
+      <c r="F578" t="n">
+        <v>250</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H578" t="n">
+        <v>4</v>
+      </c>
+      <c r="I578" t="n">
+        <v>17</v>
+      </c>
+      <c r="J578" t="n">
+        <v>7</v>
+      </c>
+      <c r="K578" t="n">
+        <v>45</v>
+      </c>
+      <c r="L578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" t="n">
+        <v>16</v>
+      </c>
+      <c r="N578" t="inlineStr"/>
+      <c r="O578" t="inlineStr"/>
+      <c r="P578" t="inlineStr"/>
+      <c r="Q578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45764.36458333334</v>
+      </c>
+      <c r="B579" t="n">
+        <v>214</v>
+      </c>
+      <c r="C579" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="D579" t="n">
+        <v>214</v>
+      </c>
+      <c r="E579" t="n">
+        <v>216.1499938964844</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H579" t="n">
+        <v>4</v>
+      </c>
+      <c r="I579" t="n">
+        <v>17</v>
+      </c>
+      <c r="J579" t="n">
+        <v>8</v>
+      </c>
+      <c r="K579" t="n">
+        <v>45</v>
+      </c>
+      <c r="L579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M579" t="n">
+        <v>16</v>
+      </c>
+      <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr"/>
+      <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45768.15625</v>
+      </c>
+      <c r="B580" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="C580" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="D580" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="E580" t="n">
+        <v>218.1999969482422</v>
+      </c>
+      <c r="F580" t="n">
+        <v>500</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H580" t="n">
+        <v>4</v>
+      </c>
+      <c r="I580" t="n">
+        <v>21</v>
+      </c>
+      <c r="J580" t="n">
+        <v>3</v>
+      </c>
+      <c r="K580" t="n">
+        <v>45</v>
+      </c>
+      <c r="L580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>17</v>
+      </c>
+      <c r="N580" t="inlineStr"/>
+      <c r="O580" t="inlineStr"/>
+      <c r="P580" t="inlineStr"/>
+      <c r="Q580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45768.19791666666</v>
+      </c>
+      <c r="B581" t="n">
+        <v>217.9499969482422</v>
+      </c>
+      <c r="C581" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="D581" t="n">
+        <v>217.9499969482422</v>
+      </c>
+      <c r="E581" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="F581" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H581" t="n">
+        <v>4</v>
+      </c>
+      <c r="I581" t="n">
+        <v>21</v>
+      </c>
+      <c r="J581" t="n">
+        <v>4</v>
+      </c>
+      <c r="K581" t="n">
+        <v>45</v>
+      </c>
+      <c r="L581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>17</v>
+      </c>
+      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr"/>
+      <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45768.23958333334</v>
+      </c>
+      <c r="B582" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="C582" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="D582" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="E582" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="F582" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H582" t="n">
+        <v>4</v>
+      </c>
+      <c r="I582" t="n">
+        <v>21</v>
+      </c>
+      <c r="J582" t="n">
+        <v>5</v>
+      </c>
+      <c r="K582" t="n">
+        <v>45</v>
+      </c>
+      <c r="L582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>17</v>
+      </c>
+      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr"/>
+      <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45768.28125</v>
+      </c>
+      <c r="B583" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="C583" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="D583" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="E583" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H583" t="n">
+        <v>4</v>
+      </c>
+      <c r="I583" t="n">
+        <v>21</v>
+      </c>
+      <c r="J583" t="n">
+        <v>6</v>
+      </c>
+      <c r="K583" t="n">
+        <v>45</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>17</v>
+      </c>
+      <c r="N583" t="inlineStr"/>
+      <c r="O583" t="inlineStr"/>
+      <c r="P583" t="inlineStr"/>
+      <c r="Q583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45768.36458333334</v>
+      </c>
+      <c r="B584" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="C584" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="D584" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="E584" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="F584" t="n">
+        <v>500</v>
+      </c>
+      <c r="G584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H584" t="n">
+        <v>4</v>
+      </c>
+      <c r="I584" t="n">
+        <v>21</v>
+      </c>
+      <c r="J584" t="n">
+        <v>8</v>
+      </c>
+      <c r="K584" t="n">
+        <v>45</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>17</v>
+      </c>
+      <c r="N584" t="inlineStr"/>
+      <c r="O584" t="inlineStr"/>
+      <c r="P584" t="inlineStr"/>
+      <c r="Q584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45769.19791666666</v>
+      </c>
+      <c r="B585" t="n">
+        <v>227</v>
+      </c>
+      <c r="C585" t="n">
+        <v>227</v>
+      </c>
+      <c r="D585" t="n">
+        <v>227</v>
+      </c>
+      <c r="E585" t="n">
+        <v>227</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0</v>
+      </c>
+      <c r="G585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H585" t="n">
+        <v>4</v>
+      </c>
+      <c r="I585" t="n">
+        <v>22</v>
+      </c>
+      <c r="J585" t="n">
+        <v>4</v>
+      </c>
+      <c r="K585" t="n">
+        <v>45</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>17</v>
+      </c>
+      <c r="N585" t="inlineStr"/>
+      <c r="O585" t="inlineStr"/>
+      <c r="P585" t="inlineStr"/>
+      <c r="Q585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45769.23958333334</v>
+      </c>
+      <c r="B586" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="C586" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="D586" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="E586" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="F586" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H586" t="n">
+        <v>4</v>
+      </c>
+      <c r="I586" t="n">
+        <v>22</v>
+      </c>
+      <c r="J586" t="n">
+        <v>5</v>
+      </c>
+      <c r="K586" t="n">
+        <v>45</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>17</v>
+      </c>
+      <c r="N586" t="inlineStr"/>
+      <c r="O586" t="inlineStr"/>
+      <c r="P586" t="inlineStr"/>
+      <c r="Q586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45769.28125</v>
+      </c>
+      <c r="B587" t="n">
+        <v>231.3500061035156</v>
+      </c>
+      <c r="C587" t="n">
+        <v>231.3500061035156</v>
+      </c>
+      <c r="D587" t="n">
+        <v>231.3500061035156</v>
+      </c>
+      <c r="E587" t="n">
+        <v>231.3500061035156</v>
+      </c>
+      <c r="F587" t="n">
+        <v>500</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H587" t="n">
+        <v>4</v>
+      </c>
+      <c r="I587" t="n">
+        <v>22</v>
+      </c>
+      <c r="J587" t="n">
+        <v>6</v>
+      </c>
+      <c r="K587" t="n">
+        <v>45</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" t="n">
+        <v>17</v>
+      </c>
+      <c r="N587" t="inlineStr"/>
+      <c r="O587" t="inlineStr"/>
+      <c r="P587" t="inlineStr"/>
+      <c r="Q587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45769.36458333334</v>
+      </c>
+      <c r="B588" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="C588" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="D588" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="E588" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="F588" t="n">
+        <v>750</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H588" t="n">
+        <v>4</v>
+      </c>
+      <c r="I588" t="n">
+        <v>22</v>
+      </c>
+      <c r="J588" t="n">
+        <v>8</v>
+      </c>
+      <c r="K588" t="n">
+        <v>45</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>17</v>
+      </c>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr"/>
+      <c r="P588" t="inlineStr"/>
+      <c r="Q588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45769.40625</v>
+      </c>
+      <c r="B589" t="n">
+        <v>231</v>
+      </c>
+      <c r="C589" t="n">
+        <v>231</v>
+      </c>
+      <c r="D589" t="n">
+        <v>231</v>
+      </c>
+      <c r="E589" t="n">
+        <v>231</v>
+      </c>
+      <c r="F589" t="n">
+        <v>750</v>
+      </c>
+      <c r="G589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H589" t="n">
+        <v>4</v>
+      </c>
+      <c r="I589" t="n">
+        <v>22</v>
+      </c>
+      <c r="J589" t="n">
+        <v>9</v>
+      </c>
+      <c r="K589" t="n">
+        <v>45</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>17</v>
+      </c>
+      <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr"/>
+      <c r="P589" t="inlineStr"/>
+      <c r="Q589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45770.36458333334</v>
+      </c>
+      <c r="B590" t="n">
+        <v>230</v>
+      </c>
+      <c r="C590" t="n">
+        <v>230</v>
+      </c>
+      <c r="D590" t="n">
+        <v>230</v>
+      </c>
+      <c r="E590" t="n">
+        <v>230</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H590" t="n">
+        <v>4</v>
+      </c>
+      <c r="I590" t="n">
+        <v>23</v>
+      </c>
+      <c r="J590" t="n">
+        <v>8</v>
+      </c>
+      <c r="K590" t="n">
+        <v>45</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M590" t="n">
+        <v>17</v>
+      </c>
+      <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr"/>
+      <c r="P590" t="inlineStr"/>
+      <c r="Q590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45770.40625</v>
+      </c>
+      <c r="B591" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="C591" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="D591" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="E591" t="n">
+        <v>226.3999938964844</v>
+      </c>
+      <c r="F591" t="n">
+        <v>250</v>
+      </c>
+      <c r="G591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H591" t="n">
+        <v>4</v>
+      </c>
+      <c r="I591" t="n">
+        <v>23</v>
+      </c>
+      <c r="J591" t="n">
+        <v>9</v>
+      </c>
+      <c r="K591" t="n">
+        <v>45</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M591" t="n">
+        <v>17</v>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr"/>
+      <c r="P591" t="inlineStr"/>
+      <c r="Q591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45771.19791666666</v>
+      </c>
+      <c r="B592" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="C592" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="D592" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="E592" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
+      <c r="G592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H592" t="n">
+        <v>4</v>
+      </c>
+      <c r="I592" t="n">
+        <v>24</v>
+      </c>
+      <c r="J592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K592" t="n">
+        <v>45</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M592" t="n">
+        <v>17</v>
+      </c>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="inlineStr"/>
+      <c r="Q592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45772.23958333334</v>
+      </c>
+      <c r="B593" t="n">
+        <v>221</v>
+      </c>
+      <c r="C593" t="n">
+        <v>221</v>
+      </c>
+      <c r="D593" t="n">
+        <v>221</v>
+      </c>
+      <c r="E593" t="n">
+        <v>221</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H593" t="n">
+        <v>4</v>
+      </c>
+      <c r="I593" t="n">
+        <v>25</v>
+      </c>
+      <c r="J593" t="n">
+        <v>5</v>
+      </c>
+      <c r="K593" t="n">
+        <v>45</v>
+      </c>
+      <c r="L593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" t="n">
+        <v>17</v>
+      </c>
+      <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr"/>
+      <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45772.40625</v>
+      </c>
+      <c r="B594" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="C594" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="D594" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E594" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="F594" t="n">
+        <v>250</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H594" t="n">
+        <v>4</v>
+      </c>
+      <c r="I594" t="n">
+        <v>25</v>
+      </c>
+      <c r="J594" t="n">
+        <v>9</v>
+      </c>
+      <c r="K594" t="n">
+        <v>45</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>17</v>
+      </c>
+      <c r="N594" t="inlineStr"/>
+      <c r="O594" t="inlineStr"/>
+      <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
